--- a/Defender Price List.xlsx
+++ b/Defender Price List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcot./Library/Mobile Documents/com~apple~CloudDocs/_Job applications/Defender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2384A705-F486-EB47-BD5A-15B62B98F58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4149ECDA-3E81-8242-AE64-85B4774899D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="760" windowWidth="29000" windowHeight="15720" activeTab="5" xr2:uid="{C4E6C565-55EC-4433-B17C-E6607DE47B4E}"/>
+    <workbookView xWindow="6280" yWindow="700" windowWidth="26720" windowHeight="21660" activeTab="1" xr2:uid="{C4E6C565-55EC-4433-B17C-E6607DE47B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Site Items" sheetId="13" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="Coles" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Coles!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Height Safety'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ladders + Stairs'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Misc!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Site Items'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Walkway + Platforms'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Coles!$A$1:$G$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Height Safety'!$A$1:$G$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ladders + Stairs'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Misc!$A$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Site Items'!$B$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Walkway + Platforms'!$A$1:$G$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="472">
   <si>
     <t>Unit</t>
   </si>
@@ -209,18 +209,6 @@
     <t>Additional Concrete corner/ intermediate</t>
   </si>
   <si>
-    <t>LL530</t>
-  </si>
-  <si>
-    <t>Libera Static line per metre</t>
-  </si>
-  <si>
-    <t>LL540</t>
-  </si>
-  <si>
-    <t>Corner bracket (Libera)</t>
-  </si>
-  <si>
     <t>LL600</t>
   </si>
   <si>
@@ -923,9 +911,6 @@
     <t>Code</t>
   </si>
   <si>
-    <t>Engineer</t>
-  </si>
-  <si>
     <t>Factory</t>
   </si>
   <si>
@@ -1067,10 +1052,418 @@
     <t>🛒 Coles BOH Fencing</t>
   </si>
   <si>
-    <t>Field 1</t>
-  </si>
-  <si>
     <t>Field 2</t>
+  </si>
+  <si>
+    <t>Suggested Min. Charge</t>
+  </si>
+  <si>
+    <t>Height Safety Engineer</t>
+  </si>
+  <si>
+    <t>DA1826</t>
+  </si>
+  <si>
+    <t>Defender™ 15kN Universal Top mount anchor Certified to AS 5532-2013 fixed to purlin -max 55mm thermal insulation</t>
+  </si>
+  <si>
+    <t>Defender™ 15kN Universal Anchor- Fixed to roof pan direct to substrate, Certified to AS 5532-2013 -max 55mm thermal insulation</t>
+  </si>
+  <si>
+    <t>Defender Razor Anchor, installed on thermal insulation raising batten upto 100mm</t>
+  </si>
+  <si>
+    <t>Defender™ 15kN Concrete Anchor-Certified to AS 5532-2013 Including onsite pullout testing</t>
+  </si>
+  <si>
+    <t>First man up strop 15kN 2m with Stainless attachment ring</t>
+  </si>
+  <si>
+    <t>Fallprotec Static Line per metre</t>
+  </si>
+  <si>
+    <t>Fall Protec Surface mount per meter to suit Static line</t>
+  </si>
+  <si>
+    <t>Fall Protec concrete mounting brackets to suit Static line</t>
+  </si>
+  <si>
+    <t>Additional Intermediates/corner bend Bracket Surface Mount</t>
+  </si>
+  <si>
+    <t>Additional Intermediate Bracket / Corner bend Concrete Mount to suit static line</t>
+  </si>
+  <si>
+    <t>Rigid Rail 2016</t>
+  </si>
+  <si>
+    <t>Metal roof deck mounts to suit rigid rail per metre</t>
+  </si>
+  <si>
+    <t>Corner bend in Rigid rail</t>
+  </si>
+  <si>
+    <t>Supply Securail Shuttle for use with Securail Rigid Rail System</t>
+  </si>
+  <si>
+    <t>Shuttle to suit 2016 rigid rail</t>
+  </si>
+  <si>
+    <t>Horizontal Line Traveller   (Fallprotec)</t>
+  </si>
+  <si>
+    <t>Fall Protec Vertical line traveller with shock absorber</t>
+  </si>
+  <si>
+    <t>Safe Access Rail per metre</t>
+  </si>
+  <si>
+    <t>Rope access Surface mount to suit rigid rail per metre</t>
+  </si>
+  <si>
+    <t>Rope access Concrete mounted to suit rigid rail per metre</t>
+  </si>
+  <si>
+    <t>Safe Access C per metre</t>
+  </si>
+  <si>
+    <t>Supply Fallprotec removable davit arm. Height 1.5m reach from 0.6 to1.6m total suspended load 240kg</t>
+  </si>
+  <si>
+    <t>Fallprotec Socket to fix the davit on height 600 mm, galvanized steel, Total Suspended load 240kg</t>
+  </si>
+  <si>
+    <t>Defender 1.01 to 1.8m Fence sytem for prohibited storage mounted to coolroom panel</t>
+  </si>
+  <si>
+    <t>Certified perimeter barrier to suit Defender fencing system for fall protection</t>
+  </si>
+  <si>
+    <t>Inward opening access Gate to suit access location including sign "authorised access</t>
+  </si>
+  <si>
+    <t>Sign "Storage prohibited" spaced every 3m</t>
+  </si>
+  <si>
+    <t>Defender™ Coles Specified Plantroom Double door kit</t>
+  </si>
+  <si>
+    <t>Hazard warning signage for each plantroom door</t>
+  </si>
+  <si>
+    <t>Defender™ Anchor bolt attached to over head beam including compliance plate</t>
+  </si>
+  <si>
+    <t>Coles Plantroom - Glider Trolley</t>
+  </si>
+  <si>
+    <t>Demarcation strip "No Access Beyond" powdercoated yellow with black lettering 50mm wide</t>
+  </si>
+  <si>
+    <t>Install yellow FRP staircase nosing</t>
+  </si>
+  <si>
+    <t>Sign - Authorised Roof Access Point</t>
+  </si>
+  <si>
+    <t>Sign - Always face ladder, Use both hands, Climb slowly</t>
+  </si>
+  <si>
+    <t>Sign - Fragile surface keep clear</t>
+  </si>
+  <si>
+    <t>Sign - Low head room</t>
+  </si>
+  <si>
+    <t>Sign - No Access Beyond This Point; fixed to roof</t>
+  </si>
+  <si>
+    <t>Sign - No Access Beyond This Point</t>
+  </si>
+  <si>
+    <t>Sign - Compliance/Data Information plate</t>
+  </si>
+  <si>
+    <t>Defender™ guardrail system fixed to Min .42bmt roof sheet</t>
+  </si>
+  <si>
+    <t>Defender™ 3m fold down guardrail system fixed to Min .42bmt roof sheet</t>
+  </si>
+  <si>
+    <t>Defender™ guardrail system, stanchion mount light duty base plates</t>
+  </si>
+  <si>
+    <t>Directional changes in Defender™ guardrail systems</t>
+  </si>
+  <si>
+    <t>Defender™ guardrail system with extended base for box gutters/polycarbonate roof sheets</t>
+  </si>
+  <si>
+    <t>Defender™ hinged self closing gate 600x450mm with outward swing prevention tab</t>
+  </si>
+  <si>
+    <t>Handrail returns to Defender™ guardrail system</t>
+  </si>
+  <si>
+    <t>Supply and install framed skylight cover - Small</t>
+  </si>
+  <si>
+    <t>Supply and install Framed skylight cover  - Large</t>
+  </si>
+  <si>
+    <t>Traficable polycarbonate covers 2m, with extended support frame and sign "Warning Fragile Surface"</t>
+  </si>
+  <si>
+    <t>Defender™ platform system light duty 600mm wide</t>
+  </si>
+  <si>
+    <t>Defender™ platform system heavy duty 600mm wide</t>
+  </si>
+  <si>
+    <t>Defender™ platform system with integrated toe board 600 wide</t>
+  </si>
+  <si>
+    <t>Guardrail mounted to Defender™ platform system</t>
+  </si>
+  <si>
+    <t>Directional changes in Defender™ guardrail platform systems</t>
+  </si>
+  <si>
+    <t>Suspension of Defender™ platform system with thread rod hangers and support bar</t>
+  </si>
+  <si>
+    <t>Post support for Defender™ platform system</t>
+  </si>
+  <si>
+    <t>Defender™ 13mm Aluminium walkway system flat to roof</t>
+  </si>
+  <si>
+    <t>Defender™ walkway system directional change</t>
+  </si>
+  <si>
+    <t>Defender™ 13mm Aluminium walkway system, levelled</t>
+  </si>
+  <si>
+    <t>Defender™ 13mm Aluminium walkway with guardrail system to one side, Levelled</t>
+  </si>
+  <si>
+    <t>Defender™ 13mm aluminium walkway levelled, with double guardrail system</t>
+  </si>
+  <si>
+    <t>Fix cleats to walkway system in areas 7 to 20°</t>
+  </si>
+  <si>
+    <t>Supply and install Defender™ 2m ladder entry system, Defender™ Roof entry system with Levelled Walkway and 2m double guardrail</t>
+  </si>
+  <si>
+    <t>Defender™ portable ladder roof entry system with grab rails, levelled Walkway, 2m double guardrail and ladder stabilising bracket</t>
+  </si>
+  <si>
+    <t>Install 100mm Toe board to Guardrail system</t>
+  </si>
+  <si>
+    <t>Defender™ sliding roof access hatch - 1180 x 800mm Zinc</t>
+  </si>
+  <si>
+    <t>Supply Only Sliding roof access hatch - 1180 x 800mm Zinc</t>
+  </si>
+  <si>
+    <t>Defender™ guardrail hatch surround with grab rails</t>
+  </si>
+  <si>
+    <t>Fit back flashing to roof hatch from ridgeline in Zinc finish</t>
+  </si>
+  <si>
+    <t>Defender™ Fixed Rung ladder up to 1m</t>
+  </si>
+  <si>
+    <t>Defender™ Fixed Rung ladder up to 2m</t>
+  </si>
+  <si>
+    <t>Defender™ Fixed Rung ladder up to 3m</t>
+  </si>
+  <si>
+    <t>Defender™ Fixed Rung ladder up to 4m</t>
+  </si>
+  <si>
+    <t>Defender™ Fixed Rung ladder up to 5m</t>
+  </si>
+  <si>
+    <t>Defender™ Fixed Rung ladder up to 6m</t>
+  </si>
+  <si>
+    <t>1m Fixed rung ladder, handrail set and 900mm parapet platform</t>
+  </si>
+  <si>
+    <t>2m Fixed rung ladder, handrail set and 900mm parapet platform</t>
+  </si>
+  <si>
+    <t>3m Fixed rung ladder, handrail set and 900mm parapet platform</t>
+  </si>
+  <si>
+    <t>4m Fixed rung ladder, handrail set and 900mm parapet platform</t>
+  </si>
+  <si>
+    <t>5m rung ladder, handrail set and parapet 5m Fixed rung ladder, handrail set and 900mm parapet platform</t>
+  </si>
+  <si>
+    <t>Defender™ Fixed rung ladder up to 3m with safety cage</t>
+  </si>
+  <si>
+    <t>Defender™ Fixed rung ladder up to 4m with safety cage</t>
+  </si>
+  <si>
+    <t>Caged rung ladder 5000 Defender™ Fixed rung ladder up to 5m with safety cage</t>
+  </si>
+  <si>
+    <t>Defender™ Fixed rung ladder up to 6m with safety cage</t>
+  </si>
+  <si>
+    <t>Defender™ Rung ladder levelled landing platform</t>
+  </si>
+  <si>
+    <t>Defender™ Rung ladder landing platform, levelled to substrate over 7 degree pitch.</t>
+  </si>
+  <si>
+    <t>Defender™ Handrail set for fixed rung ladder</t>
+  </si>
+  <si>
+    <t>Defender™ Portable Ladder Stabilising Bracket fixed to roof</t>
+  </si>
+  <si>
+    <t>Defender™ Portable Ladder Stabilising Bracket fixed to wall</t>
+  </si>
+  <si>
+    <t>Defender™ ladder cage 1m</t>
+  </si>
+  <si>
+    <t>Defender™ ladder cage 2m</t>
+  </si>
+  <si>
+    <t>Defender™ ladder cage 3m</t>
+  </si>
+  <si>
+    <t>Defender™ ladder cage 4m</t>
+  </si>
+  <si>
+    <t>Defender™ ladder cage 5m</t>
+  </si>
+  <si>
+    <t>Security Cover for rung ladder with pad lock lugs and handle</t>
+  </si>
+  <si>
+    <t>Security gate for ladder cage with pad lock lug and side swing hinge mechanism</t>
+  </si>
+  <si>
+    <t>Amboss Attic ladder up to 3m fitted to existing ceiling penetration (by others)</t>
+  </si>
+  <si>
+    <t>Amboss Attic ladder up to 3.6m fitted to existing ceiling penetration (by others)</t>
+  </si>
+  <si>
+    <t>Amboss Attic ladder up to 3m with suspension kit fitted to existing ceiling penetration</t>
+  </si>
+  <si>
+    <t>Amboss Attic ladder up to 3.6m with suspension kit fitted to existing ceiling penetration</t>
+  </si>
+  <si>
+    <t>Security Step ladder cover with pad lock lugs and handle</t>
+  </si>
+  <si>
+    <t>Defender™ 1m Step type ladder to access through hatch opening</t>
+  </si>
+  <si>
+    <t>Defender™ 2m Step type ladder to access through hatch opening</t>
+  </si>
+  <si>
+    <t>Defender™ 3m Step type ladder to access through hatch opening</t>
+  </si>
+  <si>
+    <t>Defender™ 4m Step type ladder to access through hatch opening</t>
+  </si>
+  <si>
+    <t>Defender™ 5m Step type ladder to access through hatch opening</t>
+  </si>
+  <si>
+    <t>Defender™ 1m Step type ladder with landing and handrail system</t>
+  </si>
+  <si>
+    <t>Defender™ 2m Step type ladder with landing and handrail system</t>
+  </si>
+  <si>
+    <t>Defender™ 3m Step type ladder with landing and handrail system</t>
+  </si>
+  <si>
+    <t>Defender™ 4m Step type ladder with landing and handrail system</t>
+  </si>
+  <si>
+    <t>Defender™ 5m Step type ladder with landing and handrail system</t>
+  </si>
+  <si>
+    <t>Supply and install stepped roof walkway and guardrail system</t>
+  </si>
+  <si>
+    <t>Defender Staircase 3420 certified to National Construction Code</t>
+  </si>
+  <si>
+    <t>Defender Staircase 3000 certified to National Construction Code</t>
+  </si>
+  <si>
+    <t>Defender Staircase 2400 certified to National Construction Code</t>
+  </si>
+  <si>
+    <t>Defender Staircase 1800 certified to National Construction Code</t>
+  </si>
+  <si>
+    <t>Defender Staircase 1200 certified to National Construction Code</t>
+  </si>
+  <si>
+    <t>Defender Staircase 600 certified to National Construction Code</t>
+  </si>
+  <si>
+    <t>AS 1657 Staircase up to 2.5m</t>
+  </si>
+  <si>
+    <t>AS 1657 Staircase 2.6m to 3.4m height</t>
+  </si>
+  <si>
+    <t>Defender Staircase up to 3420mm certified to National Construction Code and Disability AS/NZS 1428</t>
+  </si>
+  <si>
+    <t>Defender™ Staircase landing platform with guardrail system 1.2 x 1.2</t>
+  </si>
+  <si>
+    <t>Supply and install single step</t>
+  </si>
+  <si>
+    <t>Project Management, Site Mobilisation, Induction up to 1hr, Risk assessment and development of SWMS, Site Measure, Schematic layout approval, Final commission and inspection, Handover documentation</t>
+  </si>
+  <si>
+    <t>Additional site mobilisation for project stages including delivery</t>
+  </si>
+  <si>
+    <t>Crane lift upto 25T (4hr min), Vertical &amp; horizontal lifting - excludes traffic management and permits if required</t>
+  </si>
+  <si>
+    <t>Vertical and horizontal lifting by hand, excludes Crane, Traffic management and permits if required</t>
+  </si>
+  <si>
+    <t>Setting up exclusion zones, and loading work areas for multiple buildings</t>
+  </si>
+  <si>
+    <t>Freight to site including unloading of materials and manual handling</t>
+  </si>
+  <si>
+    <t>LAFHA, Accommodation and associated allowances per man day</t>
+  </si>
+  <si>
+    <t>BTS Harness kit</t>
+  </si>
+  <si>
+    <t>Lockable cabinet for harness kit</t>
+  </si>
+  <si>
+    <t>Labour - Factory</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1473,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1091,6 +1484,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1117,10 +1516,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1458,13 +1859,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E13A78-A279-4F3E-81D0-C47DA32EEF15}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.1640625" customWidth="1"/>
@@ -1472,47 +1875,53 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>336</v>
+      </c>
+      <c r="C2" t="s">
+        <v>315</v>
       </c>
       <c r="D2" s="1">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
+      <c r="G2" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>292</v>
-      </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>471</v>
+      </c>
+      <c r="C3" t="s">
+        <v>315</v>
       </c>
       <c r="D3" s="1">
         <v>150</v>
@@ -1520,13 +1929,16 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
+      <c r="G3" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>293</v>
-      </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>288</v>
+      </c>
+      <c r="C4" t="s">
+        <v>315</v>
       </c>
       <c r="D4" s="1">
         <v>160</v>
@@ -1534,16 +1946,19 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
+      <c r="G4" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>468</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D5" s="1">
         <v>285</v>
@@ -1551,16 +1966,19 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
+      <c r="G5" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>463</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="D6" s="1">
         <v>2500</v>
@@ -1568,16 +1986,19 @@
       <c r="E6" t="s">
         <v>3</v>
       </c>
+      <c r="G6" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D7" s="1">
         <v>250</v>
@@ -1585,16 +2006,19 @@
       <c r="E7" t="s">
         <v>3</v>
       </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
-        <v>321</v>
+        <v>464</v>
       </c>
       <c r="C8" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="D8" s="1">
         <v>2250</v>
@@ -1602,16 +2026,19 @@
       <c r="E8" t="s">
         <v>3</v>
       </c>
+      <c r="G8" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>467</v>
       </c>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D9" s="1">
         <v>275</v>
@@ -1619,16 +2046,19 @@
       <c r="E9" t="s">
         <v>3</v>
       </c>
+      <c r="G9" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B10" t="s">
-        <v>321</v>
+        <v>469</v>
       </c>
       <c r="C10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D10" s="1">
         <v>550</v>
@@ -1636,16 +2066,19 @@
       <c r="E10" t="s">
         <v>3</v>
       </c>
+      <c r="G10" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B11" t="s">
-        <v>321</v>
+        <v>470</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D11" s="1">
         <v>485</v>
@@ -1653,16 +2086,19 @@
       <c r="E11" t="s">
         <v>3</v>
       </c>
+      <c r="G11" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>465</v>
       </c>
       <c r="C12" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="D12" s="1">
         <v>2074</v>
@@ -1670,16 +2106,19 @@
       <c r="E12" t="s">
         <v>3</v>
       </c>
+      <c r="G12" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>466</v>
       </c>
       <c r="C13" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="D13" s="1">
         <v>285</v>
@@ -1687,16 +2126,19 @@
       <c r="E13" t="s">
         <v>3</v>
       </c>
+      <c r="G13" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B14" t="s">
-        <v>321</v>
+        <v>462</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="D14" s="1">
         <v>5557</v>
@@ -1704,16 +2146,19 @@
       <c r="E14" t="s">
         <v>3</v>
       </c>
+      <c r="G14" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="C15" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D15" s="1">
         <v>400</v>
@@ -1721,11 +2166,14 @@
       <c r="E15" t="s">
         <v>3</v>
       </c>
+      <c r="G15" t="s">
+        <v>305</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{397E4D91-B13A-4289-B7BC-48173F65EAC2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F15">
-      <sortCondition ref="B1:B15"/>
+  <autoFilter ref="B1:F1" xr:uid="{397E4D91-B13A-4289-B7BC-48173F65EAC2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F15">
+      <sortCondition ref="C1:C15"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1736,1150 +2184,1543 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A9BC90-D8CB-4804-822B-42078E490CF1}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="35.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>404</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>318</v>
       </c>
       <c r="D2" s="1">
-        <v>100</v>
+        <v>2650</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>405</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>318</v>
       </c>
       <c r="D3" s="1">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>406</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>318</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>407</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>323</v>
+        <v>408</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
+        <v>634</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>409</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>317</v>
       </c>
       <c r="D7" s="1">
-        <v>100</v>
+        <v>858</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>323</v>
+        <v>410</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>317</v>
       </c>
       <c r="D8" s="1">
-        <v>100</v>
+        <v>1082</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>323</v>
+        <v>411</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>317</v>
       </c>
       <c r="D9" s="1">
-        <v>100</v>
+        <v>1327</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>412</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="D10" s="1">
-        <v>100</v>
+        <v>1574</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>413</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="D11" s="1">
-        <v>100</v>
+        <v>1820</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>326</v>
+        <v>414</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>317</v>
       </c>
       <c r="D12" s="1">
-        <v>100</v>
+        <v>1072</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>317</v>
       </c>
       <c r="D13" s="1">
-        <v>100</v>
+        <v>1297</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>317</v>
       </c>
       <c r="D14" s="1">
-        <v>100</v>
+        <v>1520</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>417</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>317</v>
       </c>
       <c r="D15" s="1">
-        <v>100</v>
+        <v>1765</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>418</v>
+      </c>
+      <c r="C16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
+        <v>419</v>
+      </c>
+      <c r="C17" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1804</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>420</v>
+      </c>
+      <c r="C18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2447</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>421</v>
+      </c>
+      <c r="C19" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2992</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
+        <v>422</v>
+      </c>
+      <c r="C20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3536</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" t="s">
+        <v>423</v>
+      </c>
+      <c r="C21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D21" s="1">
+        <v>163</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s">
+        <v>424</v>
+      </c>
+      <c r="C22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" s="1">
+        <v>273</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>425</v>
+      </c>
+      <c r="C23" t="s">
+        <v>321</v>
+      </c>
+      <c r="D23" s="1">
+        <v>209</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" t="s">
+        <v>426</v>
+      </c>
+      <c r="C24" t="s">
+        <v>321</v>
+      </c>
+      <c r="D24" s="1">
+        <v>178</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>427</v>
+      </c>
+      <c r="C25" t="s">
+        <v>321</v>
+      </c>
+      <c r="D25" s="1">
+        <v>178</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C26" t="s">
+        <v>321</v>
+      </c>
+      <c r="D26" s="1">
+        <v>463</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" t="s">
+        <v>429</v>
+      </c>
+      <c r="C27" t="s">
+        <v>321</v>
+      </c>
+      <c r="D27" s="1">
+        <v>722</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
+        <v>430</v>
+      </c>
+      <c r="C28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1119</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>431</v>
+      </c>
+      <c r="C29" t="s">
+        <v>321</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1417</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" t="s">
+        <v>432</v>
+      </c>
+      <c r="C30" t="s">
+        <v>321</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1716</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" t="s">
+        <v>433</v>
+      </c>
+      <c r="C31" t="s">
+        <v>321</v>
+      </c>
+      <c r="D31" s="1">
+        <v>673</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
         <v>156</v>
       </c>
-      <c r="B16" t="s">
-        <v>326</v>
-      </c>
-      <c r="C16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="1">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" t="s">
+        <v>434</v>
+      </c>
+      <c r="C32" t="s">
+        <v>321</v>
+      </c>
+      <c r="D32" s="1">
+        <v>408</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
         <v>158</v>
       </c>
-      <c r="B17" t="s">
-        <v>326</v>
-      </c>
-      <c r="C17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="1">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" t="s">
-        <v>326</v>
-      </c>
-      <c r="C18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="1">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" t="s">
-        <v>326</v>
-      </c>
-      <c r="C19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="1">
-        <v>100</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="1">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" t="s">
-        <v>326</v>
-      </c>
-      <c r="C21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="1">
-        <v>100</v>
-      </c>
-      <c r="E21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" t="s">
+        <v>435</v>
+      </c>
+      <c r="C33" t="s">
+        <v>318</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3280</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" t="s">
+        <v>436</v>
+      </c>
+      <c r="C34" t="s">
+        <v>318</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3442</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" t="s">
+        <v>437</v>
+      </c>
+      <c r="C35" t="s">
+        <v>318</v>
+      </c>
+      <c r="D35" s="4">
+        <v>4701</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" t="s">
+        <v>438</v>
+      </c>
+      <c r="C36" t="s">
+        <v>318</v>
+      </c>
+      <c r="D36" s="4">
+        <v>5007</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" t="s">
+        <v>439</v>
+      </c>
+      <c r="C37" t="s">
+        <v>321</v>
+      </c>
+      <c r="D37" s="1">
+        <v>668</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" t="s">
+        <v>440</v>
+      </c>
+      <c r="C38" t="s">
+        <v>319</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1026</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" t="s">
+        <v>441</v>
+      </c>
+      <c r="C39" t="s">
+        <v>319</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1343</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" t="s">
+        <v>442</v>
+      </c>
+      <c r="C40" t="s">
+        <v>319</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1749</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" t="s">
+        <v>443</v>
+      </c>
+      <c r="C41" t="s">
+        <v>319</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2238</v>
+      </c>
+      <c r="E41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>215</v>
+      </c>
+      <c r="B42" t="s">
+        <v>444</v>
+      </c>
+      <c r="C42" t="s">
+        <v>319</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2727</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" t="s">
+        <v>445</v>
+      </c>
+      <c r="C43" t="s">
+        <v>319</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1734</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44" t="s">
+        <v>446</v>
+      </c>
+      <c r="C44" t="s">
+        <v>319</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1958</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45" t="s">
+        <v>447</v>
+      </c>
+      <c r="C45" t="s">
+        <v>319</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2494</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" t="s">
+        <v>448</v>
+      </c>
+      <c r="C46" t="s">
+        <v>319</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3666</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>225</v>
+      </c>
+      <c r="B47" t="s">
+        <v>449</v>
+      </c>
+      <c r="C47" t="s">
+        <v>319</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3800</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" t="s">
+        <v>321</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1020</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>229</v>
+      </c>
+      <c r="B49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" t="s">
+        <v>321</v>
+      </c>
+      <c r="D49" s="1">
+        <v>270</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>231</v>
+      </c>
+      <c r="B50" t="s">
+        <v>450</v>
+      </c>
+      <c r="C50" t="s">
+        <v>320</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1618</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>233</v>
+      </c>
+      <c r="B51" t="s">
+        <v>450</v>
+      </c>
+      <c r="C51" t="s">
+        <v>320</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2347</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
         <v>234</v>
       </c>
-      <c r="B22" t="s">
-        <v>326</v>
-      </c>
-      <c r="C22" t="s">
-        <v>233</v>
-      </c>
-      <c r="D22" s="1">
-        <v>100</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>232</v>
-      </c>
-      <c r="B23" t="s">
-        <v>326</v>
-      </c>
-      <c r="C23" t="s">
-        <v>231</v>
-      </c>
-      <c r="D23" s="1">
-        <v>100</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" t="s">
-        <v>326</v>
-      </c>
-      <c r="C24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="1">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" t="s">
-        <v>322</v>
-      </c>
-      <c r="C25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="1">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" t="s">
-        <v>322</v>
-      </c>
-      <c r="C26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="1">
-        <v>100</v>
-      </c>
-      <c r="E26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" t="s">
-        <v>322</v>
-      </c>
-      <c r="C27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="1">
-        <v>100</v>
-      </c>
-      <c r="E27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" t="s">
-        <v>322</v>
-      </c>
-      <c r="C28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="1">
-        <v>100</v>
-      </c>
-      <c r="E28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" t="s">
-        <v>322</v>
-      </c>
-      <c r="C29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="1">
-        <v>100</v>
-      </c>
-      <c r="E29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" t="s">
-        <v>322</v>
-      </c>
-      <c r="C30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="1">
-        <v>100</v>
-      </c>
-      <c r="E30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" t="s">
-        <v>322</v>
-      </c>
-      <c r="C31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="1">
-        <v>100</v>
-      </c>
-      <c r="E31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" t="s">
-        <v>322</v>
-      </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="1">
-        <v>100</v>
-      </c>
-      <c r="E32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" t="s">
-        <v>322</v>
-      </c>
-      <c r="C33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="1">
-        <v>100</v>
-      </c>
-      <c r="E33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" t="s">
-        <v>322</v>
-      </c>
-      <c r="C34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="1">
-        <v>100</v>
-      </c>
-      <c r="E34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" t="s">
-        <v>322</v>
-      </c>
-      <c r="C35" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="1">
-        <v>100</v>
-      </c>
-      <c r="E35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" t="s">
-        <v>322</v>
-      </c>
-      <c r="C36" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="1">
-        <v>100</v>
-      </c>
-      <c r="E36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" t="s">
-        <v>322</v>
-      </c>
-      <c r="C37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="1">
-        <v>100</v>
-      </c>
-      <c r="E37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" t="s">
-        <v>322</v>
-      </c>
-      <c r="C38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="1">
-        <v>100</v>
-      </c>
-      <c r="E38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" t="s">
-        <v>322</v>
-      </c>
-      <c r="C39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="1">
-        <v>100</v>
-      </c>
-      <c r="E39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>268</v>
-      </c>
-      <c r="B40" t="s">
-        <v>325</v>
-      </c>
-      <c r="C40" t="s">
-        <v>267</v>
-      </c>
-      <c r="D40" s="1">
-        <v>100</v>
-      </c>
-      <c r="E40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52" t="s">
+        <v>450</v>
+      </c>
+      <c r="C52" t="s">
+        <v>320</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3056</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" t="s">
+        <v>450</v>
+      </c>
+      <c r="C53" t="s">
+        <v>320</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3721</v>
+      </c>
+      <c r="E53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>239</v>
+      </c>
+      <c r="B54" t="s">
+        <v>450</v>
+      </c>
+      <c r="C54" t="s">
+        <v>320</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4507</v>
+      </c>
+      <c r="E54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" t="s">
+        <v>450</v>
+      </c>
+      <c r="C55" t="s">
+        <v>320</v>
+      </c>
+      <c r="D55" s="1">
+        <v>4957</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" t="s">
+        <v>451</v>
+      </c>
+      <c r="C56" t="s">
+        <v>320</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5368</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>245</v>
+      </c>
+      <c r="B57" t="s">
+        <v>452</v>
+      </c>
+      <c r="C57" t="s">
+        <v>320</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4616</v>
+      </c>
+      <c r="E57" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>247</v>
+      </c>
+      <c r="B58" t="s">
+        <v>453</v>
+      </c>
+      <c r="C58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3864</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>249</v>
+      </c>
+      <c r="B59" t="s">
+        <v>454</v>
+      </c>
+      <c r="C59" t="s">
+        <v>320</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3113</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>251</v>
+      </c>
+      <c r="B60" t="s">
+        <v>455</v>
+      </c>
+      <c r="C60" t="s">
+        <v>320</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2362</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>253</v>
+      </c>
+      <c r="B61" t="s">
+        <v>456</v>
+      </c>
+      <c r="C61" t="s">
+        <v>320</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1610</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" t="s">
+        <v>457</v>
+      </c>
+      <c r="C62" t="s">
+        <v>320</v>
+      </c>
+      <c r="D62" s="1">
+        <v>6267</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>257</v>
+      </c>
+      <c r="B63" t="s">
+        <v>458</v>
+      </c>
+      <c r="C63" t="s">
+        <v>320</v>
+      </c>
+      <c r="D63" s="1">
+        <v>7554</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>259</v>
+      </c>
+      <c r="B64" t="s">
+        <v>459</v>
+      </c>
+      <c r="C64" t="s">
+        <v>320</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5367</v>
+      </c>
+      <c r="E64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65" t="s">
+        <v>460</v>
+      </c>
+      <c r="C65" t="s">
+        <v>320</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1445</v>
+      </c>
+      <c r="E65" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
         <v>262</v>
       </c>
-      <c r="B41" t="s">
-        <v>325</v>
-      </c>
-      <c r="C41" t="s">
-        <v>261</v>
-      </c>
-      <c r="D41" s="1">
-        <v>100</v>
-      </c>
-      <c r="E41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>260</v>
-      </c>
-      <c r="B42" t="s">
-        <v>325</v>
-      </c>
-      <c r="C42" t="s">
-        <v>259</v>
-      </c>
-      <c r="D42" s="1">
-        <v>100</v>
-      </c>
-      <c r="E42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>248</v>
-      </c>
-      <c r="B43" t="s">
-        <v>325</v>
-      </c>
-      <c r="C43" t="s">
-        <v>247</v>
-      </c>
-      <c r="D43" s="1">
-        <v>100</v>
-      </c>
-      <c r="E43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>263</v>
+      </c>
+      <c r="B66" t="s">
+        <v>461</v>
+      </c>
+      <c r="C66" t="s">
+        <v>320</v>
+      </c>
+      <c r="D66" s="1">
+        <v>320</v>
+      </c>
+      <c r="E66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
         <v>264</v>
       </c>
-      <c r="B44" t="s">
-        <v>325</v>
-      </c>
-      <c r="C44" t="s">
-        <v>263</v>
-      </c>
-      <c r="D44" s="1">
-        <v>100</v>
-      </c>
-      <c r="E44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>256</v>
-      </c>
-      <c r="B45" t="s">
-        <v>325</v>
-      </c>
-      <c r="C45" t="s">
-        <v>255</v>
-      </c>
-      <c r="D45" s="1">
-        <v>100</v>
-      </c>
-      <c r="E45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>254</v>
-      </c>
-      <c r="B46" t="s">
-        <v>325</v>
-      </c>
-      <c r="C46" t="s">
-        <v>253</v>
-      </c>
-      <c r="D46" s="1">
-        <v>100</v>
-      </c>
-      <c r="E46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>252</v>
-      </c>
-      <c r="B47" t="s">
-        <v>325</v>
-      </c>
-      <c r="C47" t="s">
-        <v>251</v>
-      </c>
-      <c r="D47" s="1">
-        <v>100</v>
-      </c>
-      <c r="E47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>250</v>
-      </c>
-      <c r="B48" t="s">
-        <v>325</v>
-      </c>
-      <c r="C48" t="s">
-        <v>249</v>
-      </c>
-      <c r="D48" s="1">
-        <v>100</v>
-      </c>
-      <c r="E48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>258</v>
-      </c>
-      <c r="B49" t="s">
-        <v>325</v>
-      </c>
-      <c r="C49" t="s">
-        <v>257</v>
-      </c>
-      <c r="D49" s="1">
-        <v>100</v>
-      </c>
-      <c r="E49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>266</v>
-      </c>
-      <c r="B50" t="s">
-        <v>325</v>
-      </c>
-      <c r="C50" t="s">
-        <v>265</v>
-      </c>
-      <c r="D50" s="1">
-        <v>100</v>
-      </c>
-      <c r="E50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>236</v>
-      </c>
-      <c r="B51" t="s">
-        <v>325</v>
-      </c>
-      <c r="C51" t="s">
-        <v>235</v>
-      </c>
-      <c r="D51" s="1">
-        <v>100</v>
-      </c>
-      <c r="E51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>238</v>
-      </c>
-      <c r="B52" t="s">
-        <v>325</v>
-      </c>
-      <c r="C52" t="s">
-        <v>237</v>
-      </c>
-      <c r="D52" s="1">
-        <v>100</v>
-      </c>
-      <c r="E52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>240</v>
-      </c>
-      <c r="B53" t="s">
-        <v>325</v>
-      </c>
-      <c r="C53" t="s">
-        <v>239</v>
-      </c>
-      <c r="D53" s="1">
-        <v>100</v>
-      </c>
-      <c r="E53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>242</v>
-      </c>
-      <c r="B54" t="s">
-        <v>325</v>
-      </c>
-      <c r="C54" t="s">
-        <v>241</v>
-      </c>
-      <c r="D54" s="1">
-        <v>100</v>
-      </c>
-      <c r="E54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>244</v>
-      </c>
-      <c r="B55" t="s">
-        <v>325</v>
-      </c>
-      <c r="C55" t="s">
-        <v>243</v>
-      </c>
-      <c r="D55" s="1">
-        <v>100</v>
-      </c>
-      <c r="E55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>246</v>
-      </c>
-      <c r="B56" t="s">
-        <v>325</v>
-      </c>
-      <c r="C56" t="s">
-        <v>245</v>
-      </c>
-      <c r="D56" s="1">
-        <v>100</v>
-      </c>
-      <c r="E56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>222</v>
-      </c>
-      <c r="B57" t="s">
-        <v>324</v>
-      </c>
-      <c r="C57" t="s">
-        <v>221</v>
-      </c>
-      <c r="D57" s="1">
-        <v>100</v>
-      </c>
-      <c r="E57" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>224</v>
-      </c>
-      <c r="B58" t="s">
-        <v>324</v>
-      </c>
-      <c r="C58" t="s">
-        <v>223</v>
-      </c>
-      <c r="D58" s="1">
-        <v>100</v>
-      </c>
-      <c r="E58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>226</v>
-      </c>
-      <c r="B59" t="s">
-        <v>324</v>
-      </c>
-      <c r="C59" t="s">
-        <v>225</v>
-      </c>
-      <c r="D59" s="1">
-        <v>100</v>
-      </c>
-      <c r="E59" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>228</v>
-      </c>
-      <c r="B60" t="s">
-        <v>324</v>
-      </c>
-      <c r="C60" t="s">
-        <v>227</v>
-      </c>
-      <c r="D60" s="1">
-        <v>100</v>
-      </c>
-      <c r="E60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>230</v>
-      </c>
-      <c r="B61" t="s">
-        <v>324</v>
-      </c>
-      <c r="C61" t="s">
-        <v>229</v>
-      </c>
-      <c r="D61" s="1">
-        <v>100</v>
-      </c>
-      <c r="E61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>212</v>
-      </c>
-      <c r="B62" t="s">
-        <v>324</v>
-      </c>
-      <c r="C62" t="s">
-        <v>211</v>
-      </c>
-      <c r="D62" s="1">
-        <v>100</v>
-      </c>
-      <c r="E62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>214</v>
-      </c>
-      <c r="B63" t="s">
-        <v>324</v>
-      </c>
-      <c r="C63" t="s">
-        <v>213</v>
-      </c>
-      <c r="D63" s="1">
-        <v>100</v>
-      </c>
-      <c r="E63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>216</v>
-      </c>
-      <c r="B64" t="s">
-        <v>324</v>
-      </c>
-      <c r="C64" t="s">
-        <v>215</v>
-      </c>
-      <c r="D64" s="1">
-        <v>100</v>
-      </c>
-      <c r="E64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>218</v>
-      </c>
-      <c r="B65" t="s">
-        <v>324</v>
-      </c>
-      <c r="C65" t="s">
-        <v>217</v>
-      </c>
-      <c r="D65" s="1">
-        <v>100</v>
-      </c>
-      <c r="E65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>220</v>
-      </c>
-      <c r="B66" t="s">
-        <v>324</v>
-      </c>
-      <c r="C66" t="s">
-        <v>219</v>
-      </c>
-      <c r="D66" s="1">
-        <v>100</v>
-      </c>
-      <c r="E66" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{397E4D91-B13A-4289-B7BC-48173F65EAC2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F66">
-      <sortCondition ref="B1:B66"/>
+  <autoFilter ref="A1:H1" xr:uid="{81A9BC90-D8CB-4804-822B-42078E490CF1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H66">
+      <sortCondition ref="A1:A66"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2890,13 +3731,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B75A2E9-CA8D-495A-8CDE-17E1A60026BD}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.1640625" customWidth="1"/>
@@ -2904,524 +3745,696 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="D2" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
+      <c r="F2" s="1">
+        <v>300</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="D3" s="1">
-        <v>100</v>
+        <v>518</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>328</v>
+        <v>380</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
+      <c r="F4" s="1">
+        <v>380</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
+      <c r="F6" s="1">
+        <v>250</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="C7" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="D7" s="1">
-        <v>100</v>
+        <v>323</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="D8" s="1">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="D9" s="1">
-        <v>100</v>
+        <v>467</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>272</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="D10" s="1">
-        <v>100</v>
+        <v>467</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>324</v>
       </c>
       <c r="D11" s="1">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>400</v>
+      </c>
+      <c r="G11" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>388</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>325</v>
       </c>
       <c r="D12" s="1">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="B13" t="s">
-        <v>329</v>
+        <v>389</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>325</v>
       </c>
       <c r="D13" s="1">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G13" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
-        <v>327</v>
+        <v>390</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="D14" s="1">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
+      <c r="F14" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>312</v>
       </c>
       <c r="B15" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>325</v>
       </c>
       <c r="D15" s="1">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" t="s">
+        <v>391</v>
+      </c>
+      <c r="C16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="2">
+        <v>102</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" s="2">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" t="s">
+        <v>393</v>
+      </c>
+      <c r="C18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D18" s="1">
+        <v>160</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>750</v>
+      </c>
+      <c r="G18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" t="s">
+        <v>394</v>
+      </c>
+      <c r="C19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D19" s="1">
+        <v>142</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>750</v>
+      </c>
+      <c r="G19" t="s">
         <v>200</v>
       </c>
-      <c r="B16" t="s">
-        <v>327</v>
-      </c>
-      <c r="C16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" s="2">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>327</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4772</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" t="s">
+        <v>325</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6301</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" t="s">
+        <v>395</v>
+      </c>
+      <c r="C22" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" s="1">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="1">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F22" s="1">
+        <v>250</v>
+      </c>
+      <c r="G22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23" t="s">
+        <v>396</v>
+      </c>
+      <c r="C23" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="1">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" t="s">
+        <v>397</v>
+      </c>
+      <c r="C24" t="s">
+        <v>323</v>
+      </c>
+      <c r="D24" s="1">
+        <v>130</v>
+      </c>
+      <c r="E24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="1">
-        <v>100</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>198</v>
-      </c>
-      <c r="B20" t="s">
-        <v>327</v>
-      </c>
-      <c r="C20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="2">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>327</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="1">
-        <v>100</v>
-      </c>
-      <c r="E21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>327</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="1">
-        <v>100</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C23" t="s">
-        <v>203</v>
-      </c>
-      <c r="D23" s="1">
-        <v>100</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24" t="s">
-        <v>330</v>
-      </c>
-      <c r="C24" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="1">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s">
-        <v>330</v>
+        <v>398</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>323</v>
       </c>
       <c r="D25" s="1">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="1">
+        <v>350</v>
+      </c>
+      <c r="G25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s">
-        <v>330</v>
+        <v>399</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>323</v>
       </c>
       <c r="D26" s="1">
-        <v>100</v>
+        <v>570</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="1">
+        <v>600</v>
+      </c>
+      <c r="G26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>323</v>
       </c>
       <c r="D27" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s">
-        <v>330</v>
+        <v>401</v>
       </c>
       <c r="C28" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="D28" s="1">
-        <v>100</v>
+        <v>723</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D29" s="1">
-        <v>100</v>
+        <v>1063</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s">
-        <v>330</v>
+        <v>403</v>
       </c>
       <c r="C30" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D30" s="1">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{397E4D91-B13A-4289-B7BC-48173F65EAC2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
-      <sortCondition ref="B1:B30"/>
+  <autoFilter ref="A1:G30" xr:uid="{2B75A2E9-CA8D-495A-8CDE-17E1A60026BD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G30">
+      <sortCondition ref="A1:A30"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3430,608 +4443,763 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5309DB-3E4B-4A2E-B9D0-0761901A8DC7}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" t="s">
         <v>331</v>
       </c>
-      <c r="C2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="1">
-        <v>100</v>
+      <c r="D2" s="2">
+        <v>110</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>470</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" t="s">
         <v>331</v>
       </c>
-      <c r="C3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
+      <c r="D3" s="2">
+        <v>110</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>470</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>100</v>
+        <v>331</v>
+      </c>
+      <c r="D4" s="2">
+        <v>153</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>470</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>100</v>
+        <v>331</v>
+      </c>
+      <c r="D5" s="2">
+        <v>328.5</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>640</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>100</v>
+        <v>331</v>
+      </c>
+      <c r="D6" s="2">
+        <v>102</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>100</v>
+        <v>327</v>
+      </c>
+      <c r="D7" s="2">
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>100</v>
+        <v>329</v>
+      </c>
+      <c r="D8" s="2">
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="1">
-        <v>100</v>
+        <v>329</v>
+      </c>
+      <c r="D9" s="2">
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1">
-        <v>100</v>
+        <v>327</v>
+      </c>
+      <c r="D10" s="2">
+        <v>102</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="1">
-        <v>100</v>
+        <v>327</v>
+      </c>
+      <c r="D11" s="2">
+        <v>127</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="1">
-        <v>100</v>
+        <v>328</v>
+      </c>
+      <c r="D12" s="2">
+        <v>139</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="1">
-        <v>100</v>
+        <v>328</v>
+      </c>
+      <c r="D13" s="2">
+        <v>139</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
+      <c r="F13" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>328</v>
       </c>
       <c r="D14" s="1">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>328</v>
       </c>
       <c r="D15" s="1">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D16" s="1">
+        <v>568</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
         <v>64</v>
       </c>
-      <c r="B16" t="s">
-        <v>333</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D17" s="1">
+        <v>138</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>328</v>
+      </c>
+      <c r="D18" s="1">
+        <v>568</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" s="1">
+        <v>138</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" s="1">
+        <v>850</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>352</v>
+      </c>
+      <c r="C21" t="s">
+        <v>328</v>
+      </c>
+      <c r="D21" s="1">
+        <v>750</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D22" s="1">
+        <v>750</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" t="s">
+        <v>327</v>
+      </c>
+      <c r="D23" s="1">
+        <v>850</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D24" s="1">
+        <v>850</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>355</v>
+      </c>
+      <c r="C25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25" s="1">
+        <v>400</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" s="1">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>357</v>
+      </c>
+      <c r="C27" t="s">
+        <v>329</v>
+      </c>
+      <c r="D27" s="1">
         <v>63</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>328</v>
+      </c>
+      <c r="D28" s="1">
+        <v>950</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>358</v>
+      </c>
+      <c r="C29" t="s">
+        <v>328</v>
+      </c>
+      <c r="D29" s="1">
+        <v>400</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
         <v>100</v>
       </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>333</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C30" t="s">
+        <v>328</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1150</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
         <v>100</v>
       </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>333</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="1">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" t="s">
-        <v>333</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="1">
-        <v>100</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C31" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6915</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
         <v>102</v>
       </c>
-      <c r="B20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="1">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>360</v>
+      </c>
+      <c r="C32" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" s="1">
+        <v>537</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4150</v>
+      </c>
+      <c r="G32" t="s">
         <v>104</v>
       </c>
-      <c r="B21" t="s">
-        <v>333</v>
-      </c>
-      <c r="C21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="1">
-        <v>100</v>
-      </c>
-      <c r="E21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" t="s">
-        <v>333</v>
-      </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="1">
-        <v>100</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>333</v>
-      </c>
-      <c r="C23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="1">
-        <v>100</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>333</v>
-      </c>
-      <c r="C24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="1">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" t="s">
-        <v>333</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="1">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" t="s">
-        <v>333</v>
-      </c>
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="1">
-        <v>100</v>
-      </c>
-      <c r="E26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" t="s">
-        <v>333</v>
-      </c>
-      <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="1">
-        <v>100</v>
-      </c>
-      <c r="E27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>333</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="1">
-        <v>100</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" t="s">
-        <v>333</v>
-      </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="1">
-        <v>100</v>
-      </c>
-      <c r="E29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>333</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="1">
-        <v>100</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" t="s">
-        <v>334</v>
-      </c>
-      <c r="C31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="1">
-        <v>100</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" t="s">
-        <v>334</v>
-      </c>
-      <c r="C32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="1">
-        <v>100</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" t="s">
-        <v>334</v>
-      </c>
-      <c r="C33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="1">
-        <v>100</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>334</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="1">
-        <v>100</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{397E4D91-B13A-4289-B7BC-48173F65EAC2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F34">
-      <sortCondition ref="B1"/>
+  <autoFilter ref="A1:G32" xr:uid="{9D5309DB-3E4B-4A2E-B9D0-0761901A8DC7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G32">
+      <sortCondition ref="A1:A32"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4042,198 +5210,255 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008F21DF-775C-45A5-A9DB-C2774E3EF8F5}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>330</v>
       </c>
       <c r="D2" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>300</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="D3" s="1">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>500</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>330</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>330</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>330</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>330</v>
       </c>
       <c r="D7" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>330</v>
       </c>
       <c r="D8" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
       <c r="D9" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="D10" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
       </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{397E4D91-B13A-4289-B7BC-48173F65EAC2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
-      <sortCondition ref="A1"/>
+  <autoFilter ref="A1:G10" xr:uid="{008F21DF-775C-45A5-A9DB-C2774E3EF8F5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+      <sortCondition ref="A1:A10"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4244,171 +5469,214 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB7185E-3C02-4296-952B-0ECCA6C85F7E}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>333</v>
       </c>
       <c r="D2" s="1">
-        <v>100</v>
+        <v>319</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>333</v>
       </c>
       <c r="D3" s="1">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="1">
+        <v>425</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1">
-        <v>100</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="1">
+        <v>23.15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1">
-        <v>100</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>332</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
+        <v>664.89</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="D7" s="1">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="1">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="1">
-        <v>100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B9" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="D9" s="1">
         <v>500</v>
@@ -4416,11 +5684,17 @@
       <c r="E9" t="s">
         <v>3</v>
       </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>313</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{397E4D91-B13A-4289-B7BC-48173F65EAC2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F9">
-      <sortCondition ref="B1"/>
+  <autoFilter ref="A1:G9" xr:uid="{3CB7185E-3C02-4296-952B-0ECCA6C85F7E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+      <sortCondition ref="A1:A9"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Defender Price List.xlsx
+++ b/Defender Price List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcot./Library/Mobile Documents/com~apple~CloudDocs/_Job applications/Defender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4149ECDA-3E81-8242-AE64-85B4774899D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27D97B0-BE7F-E94E-846D-CEA16300284F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="700" windowWidth="26720" windowHeight="21660" activeTab="1" xr2:uid="{C4E6C565-55EC-4433-B17C-E6607DE47B4E}"/>
+    <workbookView xWindow="6280" yWindow="680" windowWidth="26720" windowHeight="21660" activeTab="1" xr2:uid="{C4E6C565-55EC-4433-B17C-E6607DE47B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Site Items" sheetId="13" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="477">
   <si>
     <t>Unit</t>
   </si>
@@ -182,27 +182,15 @@
     <t>LL500</t>
   </si>
   <si>
-    <t>static line per metre</t>
-  </si>
-  <si>
     <t>LL501</t>
   </si>
   <si>
-    <t>Surface mount per meter to suit Static line</t>
-  </si>
-  <si>
     <t>LL502</t>
   </si>
   <si>
-    <t>Concrete mount per meter to suit Static line</t>
-  </si>
-  <si>
     <t>LL505</t>
   </si>
   <si>
-    <t>Fall protect bend/intermediate</t>
-  </si>
-  <si>
     <t>LL520</t>
   </si>
   <si>
@@ -1070,51 +1058,18 @@
     <t>Defender™ 15kN Universal Anchor- Fixed to roof pan direct to substrate, Certified to AS 5532-2013 -max 55mm thermal insulation</t>
   </si>
   <si>
-    <t>Defender Razor Anchor, installed on thermal insulation raising batten upto 100mm</t>
-  </si>
-  <si>
     <t>Defender™ 15kN Concrete Anchor-Certified to AS 5532-2013 Including onsite pullout testing</t>
   </si>
   <si>
     <t>First man up strop 15kN 2m with Stainless attachment ring</t>
   </si>
   <si>
-    <t>Fallprotec Static Line per metre</t>
-  </si>
-  <si>
-    <t>Fall Protec Surface mount per meter to suit Static line</t>
-  </si>
-  <si>
-    <t>Fall Protec concrete mounting brackets to suit Static line</t>
-  </si>
-  <si>
     <t>Additional Intermediates/corner bend Bracket Surface Mount</t>
   </si>
   <si>
-    <t>Additional Intermediate Bracket / Corner bend Concrete Mount to suit static line</t>
-  </si>
-  <si>
-    <t>Rigid Rail 2016</t>
-  </si>
-  <si>
-    <t>Metal roof deck mounts to suit rigid rail per metre</t>
-  </si>
-  <si>
-    <t>Corner bend in Rigid rail</t>
-  </si>
-  <si>
-    <t>Supply Securail Shuttle for use with Securail Rigid Rail System</t>
-  </si>
-  <si>
     <t>Shuttle to suit 2016 rigid rail</t>
   </si>
   <si>
-    <t>Horizontal Line Traveller   (Fallprotec)</t>
-  </si>
-  <si>
-    <t>Fall Protec Vertical line traveller with shock absorber</t>
-  </si>
-  <si>
     <t>Safe Access Rail per metre</t>
   </si>
   <si>
@@ -1127,12 +1082,6 @@
     <t>Safe Access C per metre</t>
   </si>
   <si>
-    <t>Supply Fallprotec removable davit arm. Height 1.5m reach from 0.6 to1.6m total suspended load 240kg</t>
-  </si>
-  <si>
-    <t>Fallprotec Socket to fix the davit on height 600 mm, galvanized steel, Total Suspended load 240kg</t>
-  </si>
-  <si>
     <t>Defender 1.01 to 1.8m Fence sytem for prohibited storage mounted to coolroom panel</t>
   </si>
   <si>
@@ -1464,6 +1413,72 @@
   </si>
   <si>
     <t>Labour - Factory</t>
+  </si>
+  <si>
+    <t>Supply Defender™ removable davit arm. Height 1.5m reach from 0.6 to1.6m total suspended load 240kg</t>
+  </si>
+  <si>
+    <t>Defender™ Socket to fix the davit on height 600 mm, galvanized steel, Total Suspended load 240kg</t>
+  </si>
+  <si>
+    <t>Defender™t bend/intermediate</t>
+  </si>
+  <si>
+    <t>Defender™ Vertical line traveller with shock absorber</t>
+  </si>
+  <si>
+    <t>Defender™ Razor Anchor, installed on thermal insulation raising batten up to 100mm</t>
+  </si>
+  <si>
+    <t>Defender™ Horizontal Life Line per metre</t>
+  </si>
+  <si>
+    <t>Life Line per metre</t>
+  </si>
+  <si>
+    <t>Defender™ Surface mount per meter to suit Life Line</t>
+  </si>
+  <si>
+    <t>Surface mount per meter to suit Life Line</t>
+  </si>
+  <si>
+    <t>Defender™ concrete mounting brackets to suit Life Line</t>
+  </si>
+  <si>
+    <t>Concrete mount per meter to suit Life Line</t>
+  </si>
+  <si>
+    <t>Additional Intermediate Bracket / Corner bend Concrete Mount to suit Life Line</t>
+  </si>
+  <si>
+    <t>Monorail additional access gate</t>
+  </si>
+  <si>
+    <t>Defender™ HD Monorail per metre</t>
+  </si>
+  <si>
+    <t>Defender™ HD Monorail per metre 2016</t>
+  </si>
+  <si>
+    <t>Metal roof deck mounts to suit HD Monorail per metre</t>
+  </si>
+  <si>
+    <t>Concrete mounts to suit HD Monorail per metre</t>
+  </si>
+  <si>
+    <t>Corner bend in HD Monorail</t>
+  </si>
+  <si>
+    <t>Corner bend in HD Monorail 2016</t>
+  </si>
+  <si>
+    <t>HD Monorail 2016 additional access gate</t>
+  </si>
+  <si>
+    <t>Supply HD Monorail Shuttle for use with Securail Rigid Rail System</t>
+  </si>
+  <si>
+    <t>Defender™ Life Line shuttle</t>
   </si>
 </sst>
 </file>
@@ -1875,36 +1890,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D2" s="1">
         <v>120</v>
@@ -1913,15 +1928,15 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D3" s="1">
         <v>150</v>
@@ -1930,15 +1945,15 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D4" s="1">
         <v>160</v>
@@ -1947,18 +1962,18 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B5" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="C5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D5" s="1">
         <v>285</v>
@@ -1967,18 +1982,18 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="C6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D6" s="1">
         <v>2500</v>
@@ -1987,18 +2002,18 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D7" s="1">
         <v>250</v>
@@ -2007,18 +2022,18 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B8" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D8" s="1">
         <v>2250</v>
@@ -2027,18 +2042,18 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="C9" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D9" s="1">
         <v>275</v>
@@ -2047,18 +2062,18 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D10" s="1">
         <v>550</v>
@@ -2067,18 +2082,18 @@
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B11" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="C11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D11" s="1">
         <v>485</v>
@@ -2087,18 +2102,18 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="C12" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D12" s="1">
         <v>2074</v>
@@ -2107,18 +2122,18 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="C13" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D13" s="1">
         <v>285</v>
@@ -2127,18 +2142,18 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B14" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="C14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D14" s="1">
         <v>5557</v>
@@ -2147,18 +2162,18 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D15" s="1">
         <v>400</v>
@@ -2167,7 +2182,7 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2185,7 +2200,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2201,25 +2216,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2227,10 +2242,10 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D2" s="1">
         <v>2650</v>
@@ -2250,10 +2265,10 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D3" s="1">
         <v>2500</v>
@@ -2273,10 +2288,10 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="C4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D4" s="1">
         <v>1200</v>
@@ -2296,10 +2311,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D5" s="1">
         <v>48</v>
@@ -2316,13 +2331,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="C6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D6" s="1">
         <v>634</v>
@@ -2334,18 +2349,18 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="C7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D7" s="1">
         <v>858</v>
@@ -2357,18 +2372,18 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D8" s="1">
         <v>1082</v>
@@ -2380,18 +2395,18 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="C9" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D9" s="1">
         <v>1327</v>
@@ -2403,18 +2418,18 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="C10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D10" s="1">
         <v>1574</v>
@@ -2426,18 +2441,18 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D11" s="1">
         <v>1820</v>
@@ -2449,18 +2464,18 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="C12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D12" s="1">
         <v>1072</v>
@@ -2472,18 +2487,18 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="C13" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D13" s="1">
         <v>1297</v>
@@ -2495,18 +2510,18 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="C14" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D14" s="1">
         <v>1520</v>
@@ -2518,18 +2533,18 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="C15" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D15" s="1">
         <v>1765</v>
@@ -2541,18 +2556,18 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="C16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D16" s="1">
         <v>2011</v>
@@ -2564,18 +2579,18 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="C17" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D17" s="1">
         <v>1804</v>
@@ -2587,18 +2602,18 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="C18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D18" s="1">
         <v>2447</v>
@@ -2610,18 +2625,18 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="C19" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D19" s="1">
         <v>2992</v>
@@ -2633,18 +2648,18 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="C20" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D20" s="1">
         <v>3536</v>
@@ -2656,18 +2671,18 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="C21" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D21" s="1">
         <v>163</v>
@@ -2679,18 +2694,18 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="C22" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D22" s="1">
         <v>273</v>
@@ -2702,18 +2717,18 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="C23" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D23" s="1">
         <v>209</v>
@@ -2725,18 +2740,18 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B24" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="C24" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D24" s="1">
         <v>178</v>
@@ -2748,18 +2763,18 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="C25" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D25" s="1">
         <v>178</v>
@@ -2771,18 +2786,18 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="C26" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D26" s="1">
         <v>463</v>
@@ -2794,18 +2809,18 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="C27" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D27" s="1">
         <v>722</v>
@@ -2817,18 +2832,18 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B28" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="C28" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D28" s="1">
         <v>1119</v>
@@ -2840,18 +2855,18 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="C29" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D29" s="1">
         <v>1417</v>
@@ -2863,18 +2878,18 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="C30" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D30" s="1">
         <v>1716</v>
@@ -2886,18 +2901,18 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="C31" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D31" s="1">
         <v>673</v>
@@ -2909,18 +2924,18 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B32" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="C32" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D32" s="1">
         <v>408</v>
@@ -2932,18 +2947,18 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B33" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="C33" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D33" s="4">
         <v>3280</v>
@@ -2955,18 +2970,18 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C34" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D34" s="4">
         <v>3442</v>
@@ -2978,18 +2993,18 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="C35" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D35" s="4">
         <v>4701</v>
@@ -3001,18 +3016,18 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B36" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="C36" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D36" s="4">
         <v>5007</v>
@@ -3024,18 +3039,18 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="C37" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D37" s="1">
         <v>668</v>
@@ -3047,18 +3062,18 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B38" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="C38" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D38" s="1">
         <v>1026</v>
@@ -3070,18 +3085,18 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="C39" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D39" s="1">
         <v>1343</v>
@@ -3093,18 +3108,18 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B40" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="C40" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D40" s="1">
         <v>1749</v>
@@ -3116,18 +3131,18 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B41" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="C41" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D41" s="1">
         <v>2238</v>
@@ -3139,18 +3154,18 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B42" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="C42" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D42" s="1">
         <v>2727</v>
@@ -3162,18 +3177,18 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B43" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="C43" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D43" s="1">
         <v>1734</v>
@@ -3185,18 +3200,18 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B44" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="C44" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D44" s="1">
         <v>1958</v>
@@ -3208,18 +3223,18 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B45" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="C45" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D45" s="1">
         <v>2494</v>
@@ -3231,18 +3246,18 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B46" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="C46" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D46" s="1">
         <v>3666</v>
@@ -3254,18 +3269,18 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B47" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="C47" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D47" s="1">
         <v>3800</v>
@@ -3277,18 +3292,18 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B48" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C48" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D48" s="1">
         <v>1020</v>
@@ -3300,18 +3315,18 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B49" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C49" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D49" s="1">
         <v>270</v>
@@ -3323,18 +3338,18 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B50" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="C50" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D50" s="1">
         <v>1618</v>
@@ -3346,18 +3361,18 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B51" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="C51" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D51" s="1">
         <v>2347</v>
@@ -3369,18 +3384,18 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B52" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="C52" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D52" s="1">
         <v>3056</v>
@@ -3392,18 +3407,18 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="C53" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D53" s="1">
         <v>3721</v>
@@ -3415,18 +3430,18 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B54" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="C54" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D54" s="1">
         <v>4507</v>
@@ -3438,18 +3453,18 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B55" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="C55" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D55" s="1">
         <v>4957</v>
@@ -3461,18 +3476,18 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="C56" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D56" s="1">
         <v>5368</v>
@@ -3484,18 +3499,18 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B57" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="C57" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D57" s="1">
         <v>4616</v>
@@ -3507,18 +3522,18 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B58" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C58" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D58" s="1">
         <v>3864</v>
@@ -3530,18 +3545,18 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B59" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="C59" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D59" s="1">
         <v>3113</v>
@@ -3553,18 +3568,18 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B60" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="C60" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D60" s="1">
         <v>2362</v>
@@ -3576,18 +3591,18 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B61" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="C61" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D61" s="1">
         <v>1610</v>
@@ -3599,18 +3614,18 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B62" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="C62" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D62" s="1">
         <v>6267</v>
@@ -3622,18 +3637,18 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B63" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="C63" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D63" s="1">
         <v>7554</v>
@@ -3645,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B64" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="C64" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D64" s="1">
         <v>5367</v>
@@ -3668,18 +3683,18 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B65" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="C65" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D65" s="1">
         <v>1445</v>
@@ -3691,18 +3706,18 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B66" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="C66" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D66" s="1">
         <v>320</v>
@@ -3714,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3745,25 +3760,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3771,10 +3786,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="C2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D2" s="1">
         <v>85</v>
@@ -3794,10 +3809,10 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="C3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D3" s="1">
         <v>518</v>
@@ -3815,10 +3830,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="C4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D4" s="1">
         <v>136</v>
@@ -3838,10 +3853,10 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="C5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D5" s="1">
         <v>32</v>
@@ -3861,10 +3876,10 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D6" s="1">
         <v>136</v>
@@ -3884,10 +3899,10 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D7" s="1">
         <v>323</v>
@@ -3907,10 +3922,10 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D8" s="1">
         <v>46</v>
@@ -3927,13 +3942,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D9" s="1">
         <v>467</v>
@@ -3945,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="C10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D10" s="1">
         <v>467</v>
@@ -3968,18 +3983,18 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="C11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D11" s="1">
         <v>187</v>
@@ -3991,18 +4006,18 @@
         <v>400</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="C12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D12" s="1">
         <v>250</v>
@@ -4014,18 +4029,18 @@
         <v>1500</v>
       </c>
       <c r="G12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="C13" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D13" s="1">
         <v>290</v>
@@ -4037,18 +4052,18 @@
         <v>1500</v>
       </c>
       <c r="G13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C14" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D14" s="1">
         <v>450</v>
@@ -4060,18 +4075,18 @@
         <v>2000</v>
       </c>
       <c r="G14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C15" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D15" s="1">
         <v>420</v>
@@ -4083,18 +4098,18 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="C16" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D16" s="2">
         <v>102</v>
@@ -4106,18 +4121,18 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="C17" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D17" s="2">
         <v>32</v>
@@ -4129,18 +4144,18 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="C18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D18" s="1">
         <v>160</v>
@@ -4152,18 +4167,18 @@
         <v>750</v>
       </c>
       <c r="G18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="C19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D19" s="1">
         <v>142</v>
@@ -4175,18 +4190,18 @@
         <v>750</v>
       </c>
       <c r="G19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C20" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D20" s="1">
         <v>4772</v>
@@ -4198,18 +4213,18 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D21" s="1">
         <v>6301</v>
@@ -4221,18 +4236,18 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B22" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="C22" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D22" s="1">
         <v>85</v>
@@ -4244,18 +4259,18 @@
         <v>250</v>
       </c>
       <c r="G22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B23" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="C23" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D23" s="1">
         <v>48</v>
@@ -4267,18 +4282,18 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B24" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="C24" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D24" s="1">
         <v>130</v>
@@ -4290,18 +4305,18 @@
         <v>1000</v>
       </c>
       <c r="G24" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B25" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="C25" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D25" s="1">
         <v>215</v>
@@ -4313,18 +4328,18 @@
         <v>350</v>
       </c>
       <c r="G25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="C26" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D26" s="1">
         <v>570</v>
@@ -4336,18 +4351,18 @@
         <v>600</v>
       </c>
       <c r="G26" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="C27" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D27" s="1">
         <v>18</v>
@@ -4359,18 +4374,18 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="C28" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D28" s="1">
         <v>723</v>
@@ -4382,18 +4397,18 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C29" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D29" s="1">
         <v>1063</v>
@@ -4405,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="C30" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D30" s="1">
         <v>40</v>
@@ -4428,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4446,7 +4461,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4462,25 +4477,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4488,10 +4503,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D2" s="2">
         <v>110</v>
@@ -4511,10 +4526,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D3" s="2">
         <v>110</v>
@@ -4534,10 +4549,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="C4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D4" s="2">
         <v>153</v>
@@ -4557,10 +4572,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D5" s="2">
         <v>328.5</v>
@@ -4580,10 +4595,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D6" s="2">
         <v>102</v>
@@ -4603,10 +4618,10 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>460</v>
       </c>
       <c r="C7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D7" s="2">
         <v>90</v>
@@ -4618,18 +4633,18 @@
         <v>2500</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>462</v>
       </c>
       <c r="C8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D8" s="2">
         <v>17</v>
@@ -4641,18 +4656,18 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D9" s="2">
         <v>21</v>
@@ -4664,18 +4679,18 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D10" s="2">
         <v>102</v>
@@ -4687,18 +4702,18 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>347</v>
+        <v>466</v>
       </c>
       <c r="C11" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D11" s="2">
         <v>127</v>
@@ -4710,18 +4725,18 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>468</v>
       </c>
       <c r="C12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D12" s="2">
         <v>139</v>
@@ -4733,18 +4748,18 @@
         <v>2500</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>348</v>
+        <v>469</v>
       </c>
       <c r="C13" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D13" s="2">
         <v>139</v>
@@ -4756,18 +4771,18 @@
         <v>2500</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>349</v>
+        <v>470</v>
       </c>
       <c r="C14" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D14" s="1">
         <v>47</v>
@@ -4779,18 +4794,18 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>471</v>
       </c>
       <c r="C15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D15" s="1">
         <v>63</v>
@@ -4802,18 +4817,18 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>350</v>
+        <v>472</v>
       </c>
       <c r="C16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D16" s="1">
         <v>568</v>
@@ -4825,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>467</v>
       </c>
       <c r="C17" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D17" s="1">
         <v>138</v>
@@ -4848,18 +4863,18 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>473</v>
       </c>
       <c r="C18" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D18" s="1">
         <v>568</v>
@@ -4871,18 +4886,18 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>474</v>
       </c>
       <c r="C19" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D19" s="1">
         <v>138</v>
@@ -4894,18 +4909,18 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>351</v>
+        <v>475</v>
       </c>
       <c r="C20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D20" s="1">
         <v>850</v>
@@ -4917,18 +4932,18 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C21" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D21" s="1">
         <v>750</v>
@@ -4940,18 +4955,18 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>353</v>
+        <v>476</v>
       </c>
       <c r="C22" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D22" s="1">
         <v>750</v>
@@ -4963,18 +4978,18 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>354</v>
+        <v>458</v>
       </c>
       <c r="C23" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D23" s="1">
         <v>850</v>
@@ -4986,18 +5001,18 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D24" s="1">
         <v>850</v>
@@ -5009,18 +5024,18 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="C25" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D25" s="1">
         <v>400</v>
@@ -5032,18 +5047,18 @@
         <v>4000</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C26" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D26" s="1">
         <v>69</v>
@@ -5055,18 +5070,18 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C27" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D27" s="1">
         <v>63</v>
@@ -5078,18 +5093,18 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D28" s="1">
         <v>950</v>
@@ -5101,18 +5116,18 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C29" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D29" s="1">
         <v>400</v>
@@ -5124,18 +5139,18 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D30" s="1">
         <v>1150</v>
@@ -5147,18 +5162,18 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>359</v>
+        <v>455</v>
       </c>
       <c r="C31" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D31" s="1">
         <v>6915</v>
@@ -5170,18 +5185,18 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="C32" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D32" s="1">
         <v>537</v>
@@ -5193,7 +5208,7 @@
         <v>4150</v>
       </c>
       <c r="G32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5227,36 +5242,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D2" s="1">
         <v>17</v>
@@ -5268,18 +5283,18 @@
         <v>300</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D3" s="1">
         <v>21</v>
@@ -5291,18 +5306,18 @@
         <v>500</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D4" s="1">
         <v>32</v>
@@ -5314,18 +5329,18 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D5" s="1">
         <v>32</v>
@@ -5337,18 +5352,18 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="C6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D6" s="1">
         <v>32</v>
@@ -5360,18 +5375,18 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D7" s="1">
         <v>32</v>
@@ -5383,18 +5398,18 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="C8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D8" s="1">
         <v>32</v>
@@ -5406,18 +5421,18 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="C9" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D9" s="1">
         <v>32</v>
@@ -5429,18 +5444,18 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="C10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D10" s="1">
         <v>32</v>
@@ -5452,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5486,25 +5501,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -5512,10 +5527,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D2" s="1">
         <v>319</v>
@@ -5535,10 +5550,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D3" s="1">
         <v>79</v>
@@ -5558,10 +5573,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="C4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D4" s="1">
         <v>425</v>
@@ -5581,10 +5596,10 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="C5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D5" s="1">
         <v>23.15</v>
@@ -5601,13 +5616,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="C6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D6" s="1">
         <v>664.89</v>
@@ -5619,18 +5634,18 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="C7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D7" s="1">
         <v>39</v>
@@ -5642,18 +5657,18 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="C8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D8" s="1">
         <v>102</v>
@@ -5665,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D9" s="1">
         <v>500</v>
@@ -5688,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/Defender Price List.xlsx
+++ b/Defender Price List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcot./Library/Mobile Documents/com~apple~CloudDocs/_Job applications/Defender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2384A705-F486-EB47-BD5A-15B62B98F58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27D97B0-BE7F-E94E-846D-CEA16300284F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="760" windowWidth="29000" windowHeight="15720" activeTab="5" xr2:uid="{C4E6C565-55EC-4433-B17C-E6607DE47B4E}"/>
+    <workbookView xWindow="6280" yWindow="680" windowWidth="26720" windowHeight="21660" activeTab="1" xr2:uid="{C4E6C565-55EC-4433-B17C-E6607DE47B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Site Items" sheetId="13" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="Coles" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Coles!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Height Safety'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ladders + Stairs'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Misc!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Site Items'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Walkway + Platforms'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Coles!$A$1:$G$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Height Safety'!$A$1:$G$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ladders + Stairs'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Misc!$A$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Site Items'!$B$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Walkway + Platforms'!$A$1:$G$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="477">
   <si>
     <t>Unit</t>
   </si>
@@ -182,45 +182,21 @@
     <t>LL500</t>
   </si>
   <si>
-    <t>static line per metre</t>
-  </si>
-  <si>
     <t>LL501</t>
   </si>
   <si>
-    <t>Surface mount per meter to suit Static line</t>
-  </si>
-  <si>
     <t>LL502</t>
   </si>
   <si>
-    <t>Concrete mount per meter to suit Static line</t>
-  </si>
-  <si>
     <t>LL505</t>
   </si>
   <si>
-    <t>Fall protect bend/intermediate</t>
-  </si>
-  <si>
     <t>LL520</t>
   </si>
   <si>
     <t>Additional Concrete corner/ intermediate</t>
   </si>
   <si>
-    <t>LL530</t>
-  </si>
-  <si>
-    <t>Libera Static line per metre</t>
-  </si>
-  <si>
-    <t>LL540</t>
-  </si>
-  <si>
-    <t>Corner bracket (Libera)</t>
-  </si>
-  <si>
     <t>LL600</t>
   </si>
   <si>
@@ -923,9 +899,6 @@
     <t>Code</t>
   </si>
   <si>
-    <t>Engineer</t>
-  </si>
-  <si>
     <t>Factory</t>
   </si>
   <si>
@@ -1067,10 +1040,445 @@
     <t>🛒 Coles BOH Fencing</t>
   </si>
   <si>
-    <t>Field 1</t>
-  </si>
-  <si>
     <t>Field 2</t>
+  </si>
+  <si>
+    <t>Suggested Min. Charge</t>
+  </si>
+  <si>
+    <t>Height Safety Engineer</t>
+  </si>
+  <si>
+    <t>DA1826</t>
+  </si>
+  <si>
+    <t>Defender™ 15kN Universal Top mount anchor Certified to AS 5532-2013 fixed to purlin -max 55mm thermal insulation</t>
+  </si>
+  <si>
+    <t>Defender™ 15kN Universal Anchor- Fixed to roof pan direct to substrate, Certified to AS 5532-2013 -max 55mm thermal insulation</t>
+  </si>
+  <si>
+    <t>Defender™ 15kN Concrete Anchor-Certified to AS 5532-2013 Including onsite pullout testing</t>
+  </si>
+  <si>
+    <t>First man up strop 15kN 2m with Stainless attachment ring</t>
+  </si>
+  <si>
+    <t>Additional Intermediates/corner bend Bracket Surface Mount</t>
+  </si>
+  <si>
+    <t>Shuttle to suit 2016 rigid rail</t>
+  </si>
+  <si>
+    <t>Safe Access Rail per metre</t>
+  </si>
+  <si>
+    <t>Rope access Surface mount to suit rigid rail per metre</t>
+  </si>
+  <si>
+    <t>Rope access Concrete mounted to suit rigid rail per metre</t>
+  </si>
+  <si>
+    <t>Safe Access C per metre</t>
+  </si>
+  <si>
+    <t>Defender 1.01 to 1.8m Fence sytem for prohibited storage mounted to coolroom panel</t>
+  </si>
+  <si>
+    <t>Certified perimeter barrier to suit Defender fencing system for fall protection</t>
+  </si>
+  <si>
+    <t>Inward opening access Gate to suit access location including sign "authorised access</t>
+  </si>
+  <si>
+    <t>Sign "Storage prohibited" spaced every 3m</t>
+  </si>
+  <si>
+    <t>Defender™ Coles Specified Plantroom Double door kit</t>
+  </si>
+  <si>
+    <t>Hazard warning signage for each plantroom door</t>
+  </si>
+  <si>
+    <t>Defender™ Anchor bolt attached to over head beam including compliance plate</t>
+  </si>
+  <si>
+    <t>Coles Plantroom - Glider Trolley</t>
+  </si>
+  <si>
+    <t>Demarcation strip "No Access Beyond" powdercoated yellow with black lettering 50mm wide</t>
+  </si>
+  <si>
+    <t>Install yellow FRP staircase nosing</t>
+  </si>
+  <si>
+    <t>Sign - Authorised Roof Access Point</t>
+  </si>
+  <si>
+    <t>Sign - Always face ladder, Use both hands, Climb slowly</t>
+  </si>
+  <si>
+    <t>Sign - Fragile surface keep clear</t>
+  </si>
+  <si>
+    <t>Sign - Low head room</t>
+  </si>
+  <si>
+    <t>Sign - No Access Beyond This Point; fixed to roof</t>
+  </si>
+  <si>
+    <t>Sign - No Access Beyond This Point</t>
+  </si>
+  <si>
+    <t>Sign - Compliance/Data Information plate</t>
+  </si>
+  <si>
+    <t>Defender™ guardrail system fixed to Min .42bmt roof sheet</t>
+  </si>
+  <si>
+    <t>Defender™ 3m fold down guardrail system fixed to Min .42bmt roof sheet</t>
+  </si>
+  <si>
+    <t>Defender™ guardrail system, stanchion mount light duty base plates</t>
+  </si>
+  <si>
+    <t>Directional changes in Defender™ guardrail systems</t>
+  </si>
+  <si>
+    <t>Defender™ guardrail system with extended base for box gutters/polycarbonate roof sheets</t>
+  </si>
+  <si>
+    <t>Defender™ hinged self closing gate 600x450mm with outward swing prevention tab</t>
+  </si>
+  <si>
+    <t>Handrail returns to Defender™ guardrail system</t>
+  </si>
+  <si>
+    <t>Supply and install framed skylight cover - Small</t>
+  </si>
+  <si>
+    <t>Supply and install Framed skylight cover  - Large</t>
+  </si>
+  <si>
+    <t>Traficable polycarbonate covers 2m, with extended support frame and sign "Warning Fragile Surface"</t>
+  </si>
+  <si>
+    <t>Defender™ platform system light duty 600mm wide</t>
+  </si>
+  <si>
+    <t>Defender™ platform system heavy duty 600mm wide</t>
+  </si>
+  <si>
+    <t>Defender™ platform system with integrated toe board 600 wide</t>
+  </si>
+  <si>
+    <t>Guardrail mounted to Defender™ platform system</t>
+  </si>
+  <si>
+    <t>Directional changes in Defender™ guardrail platform systems</t>
+  </si>
+  <si>
+    <t>Suspension of Defender™ platform system with thread rod hangers and support bar</t>
+  </si>
+  <si>
+    <t>Post support for Defender™ platform system</t>
+  </si>
+  <si>
+    <t>Defender™ 13mm Aluminium walkway system flat to roof</t>
+  </si>
+  <si>
+    <t>Defender™ walkway system directional change</t>
+  </si>
+  <si>
+    <t>Defender™ 13mm Aluminium walkway system, levelled</t>
+  </si>
+  <si>
+    <t>Defender™ 13mm Aluminium walkway with guardrail system to one side, Levelled</t>
+  </si>
+  <si>
+    <t>Defender™ 13mm aluminium walkway levelled, with double guardrail system</t>
+  </si>
+  <si>
+    <t>Fix cleats to walkway system in areas 7 to 20°</t>
+  </si>
+  <si>
+    <t>Supply and install Defender™ 2m ladder entry system, Defender™ Roof entry system with Levelled Walkway and 2m double guardrail</t>
+  </si>
+  <si>
+    <t>Defender™ portable ladder roof entry system with grab rails, levelled Walkway, 2m double guardrail and ladder stabilising bracket</t>
+  </si>
+  <si>
+    <t>Install 100mm Toe board to Guardrail system</t>
+  </si>
+  <si>
+    <t>Defender™ sliding roof access hatch - 1180 x 800mm Zinc</t>
+  </si>
+  <si>
+    <t>Supply Only Sliding roof access hatch - 1180 x 800mm Zinc</t>
+  </si>
+  <si>
+    <t>Defender™ guardrail hatch surround with grab rails</t>
+  </si>
+  <si>
+    <t>Fit back flashing to roof hatch from ridgeline in Zinc finish</t>
+  </si>
+  <si>
+    <t>Defender™ Fixed Rung ladder up to 1m</t>
+  </si>
+  <si>
+    <t>Defender™ Fixed Rung ladder up to 2m</t>
+  </si>
+  <si>
+    <t>Defender™ Fixed Rung ladder up to 3m</t>
+  </si>
+  <si>
+    <t>Defender™ Fixed Rung ladder up to 4m</t>
+  </si>
+  <si>
+    <t>Defender™ Fixed Rung ladder up to 5m</t>
+  </si>
+  <si>
+    <t>Defender™ Fixed Rung ladder up to 6m</t>
+  </si>
+  <si>
+    <t>1m Fixed rung ladder, handrail set and 900mm parapet platform</t>
+  </si>
+  <si>
+    <t>2m Fixed rung ladder, handrail set and 900mm parapet platform</t>
+  </si>
+  <si>
+    <t>3m Fixed rung ladder, handrail set and 900mm parapet platform</t>
+  </si>
+  <si>
+    <t>4m Fixed rung ladder, handrail set and 900mm parapet platform</t>
+  </si>
+  <si>
+    <t>5m rung ladder, handrail set and parapet 5m Fixed rung ladder, handrail set and 900mm parapet platform</t>
+  </si>
+  <si>
+    <t>Defender™ Fixed rung ladder up to 3m with safety cage</t>
+  </si>
+  <si>
+    <t>Defender™ Fixed rung ladder up to 4m with safety cage</t>
+  </si>
+  <si>
+    <t>Caged rung ladder 5000 Defender™ Fixed rung ladder up to 5m with safety cage</t>
+  </si>
+  <si>
+    <t>Defender™ Fixed rung ladder up to 6m with safety cage</t>
+  </si>
+  <si>
+    <t>Defender™ Rung ladder levelled landing platform</t>
+  </si>
+  <si>
+    <t>Defender™ Rung ladder landing platform, levelled to substrate over 7 degree pitch.</t>
+  </si>
+  <si>
+    <t>Defender™ Handrail set for fixed rung ladder</t>
+  </si>
+  <si>
+    <t>Defender™ Portable Ladder Stabilising Bracket fixed to roof</t>
+  </si>
+  <si>
+    <t>Defender™ Portable Ladder Stabilising Bracket fixed to wall</t>
+  </si>
+  <si>
+    <t>Defender™ ladder cage 1m</t>
+  </si>
+  <si>
+    <t>Defender™ ladder cage 2m</t>
+  </si>
+  <si>
+    <t>Defender™ ladder cage 3m</t>
+  </si>
+  <si>
+    <t>Defender™ ladder cage 4m</t>
+  </si>
+  <si>
+    <t>Defender™ ladder cage 5m</t>
+  </si>
+  <si>
+    <t>Security Cover for rung ladder with pad lock lugs and handle</t>
+  </si>
+  <si>
+    <t>Security gate for ladder cage with pad lock lug and side swing hinge mechanism</t>
+  </si>
+  <si>
+    <t>Amboss Attic ladder up to 3m fitted to existing ceiling penetration (by others)</t>
+  </si>
+  <si>
+    <t>Amboss Attic ladder up to 3.6m fitted to existing ceiling penetration (by others)</t>
+  </si>
+  <si>
+    <t>Amboss Attic ladder up to 3m with suspension kit fitted to existing ceiling penetration</t>
+  </si>
+  <si>
+    <t>Amboss Attic ladder up to 3.6m with suspension kit fitted to existing ceiling penetration</t>
+  </si>
+  <si>
+    <t>Security Step ladder cover with pad lock lugs and handle</t>
+  </si>
+  <si>
+    <t>Defender™ 1m Step type ladder to access through hatch opening</t>
+  </si>
+  <si>
+    <t>Defender™ 2m Step type ladder to access through hatch opening</t>
+  </si>
+  <si>
+    <t>Defender™ 3m Step type ladder to access through hatch opening</t>
+  </si>
+  <si>
+    <t>Defender™ 4m Step type ladder to access through hatch opening</t>
+  </si>
+  <si>
+    <t>Defender™ 5m Step type ladder to access through hatch opening</t>
+  </si>
+  <si>
+    <t>Defender™ 1m Step type ladder with landing and handrail system</t>
+  </si>
+  <si>
+    <t>Defender™ 2m Step type ladder with landing and handrail system</t>
+  </si>
+  <si>
+    <t>Defender™ 3m Step type ladder with landing and handrail system</t>
+  </si>
+  <si>
+    <t>Defender™ 4m Step type ladder with landing and handrail system</t>
+  </si>
+  <si>
+    <t>Defender™ 5m Step type ladder with landing and handrail system</t>
+  </si>
+  <si>
+    <t>Supply and install stepped roof walkway and guardrail system</t>
+  </si>
+  <si>
+    <t>Defender Staircase 3420 certified to National Construction Code</t>
+  </si>
+  <si>
+    <t>Defender Staircase 3000 certified to National Construction Code</t>
+  </si>
+  <si>
+    <t>Defender Staircase 2400 certified to National Construction Code</t>
+  </si>
+  <si>
+    <t>Defender Staircase 1800 certified to National Construction Code</t>
+  </si>
+  <si>
+    <t>Defender Staircase 1200 certified to National Construction Code</t>
+  </si>
+  <si>
+    <t>Defender Staircase 600 certified to National Construction Code</t>
+  </si>
+  <si>
+    <t>AS 1657 Staircase up to 2.5m</t>
+  </si>
+  <si>
+    <t>AS 1657 Staircase 2.6m to 3.4m height</t>
+  </si>
+  <si>
+    <t>Defender Staircase up to 3420mm certified to National Construction Code and Disability AS/NZS 1428</t>
+  </si>
+  <si>
+    <t>Defender™ Staircase landing platform with guardrail system 1.2 x 1.2</t>
+  </si>
+  <si>
+    <t>Supply and install single step</t>
+  </si>
+  <si>
+    <t>Project Management, Site Mobilisation, Induction up to 1hr, Risk assessment and development of SWMS, Site Measure, Schematic layout approval, Final commission and inspection, Handover documentation</t>
+  </si>
+  <si>
+    <t>Additional site mobilisation for project stages including delivery</t>
+  </si>
+  <si>
+    <t>Crane lift upto 25T (4hr min), Vertical &amp; horizontal lifting - excludes traffic management and permits if required</t>
+  </si>
+  <si>
+    <t>Vertical and horizontal lifting by hand, excludes Crane, Traffic management and permits if required</t>
+  </si>
+  <si>
+    <t>Setting up exclusion zones, and loading work areas for multiple buildings</t>
+  </si>
+  <si>
+    <t>Freight to site including unloading of materials and manual handling</t>
+  </si>
+  <si>
+    <t>LAFHA, Accommodation and associated allowances per man day</t>
+  </si>
+  <si>
+    <t>BTS Harness kit</t>
+  </si>
+  <si>
+    <t>Lockable cabinet for harness kit</t>
+  </si>
+  <si>
+    <t>Labour - Factory</t>
+  </si>
+  <si>
+    <t>Supply Defender™ removable davit arm. Height 1.5m reach from 0.6 to1.6m total suspended load 240kg</t>
+  </si>
+  <si>
+    <t>Defender™ Socket to fix the davit on height 600 mm, galvanized steel, Total Suspended load 240kg</t>
+  </si>
+  <si>
+    <t>Defender™t bend/intermediate</t>
+  </si>
+  <si>
+    <t>Defender™ Vertical line traveller with shock absorber</t>
+  </si>
+  <si>
+    <t>Defender™ Razor Anchor, installed on thermal insulation raising batten up to 100mm</t>
+  </si>
+  <si>
+    <t>Defender™ Horizontal Life Line per metre</t>
+  </si>
+  <si>
+    <t>Life Line per metre</t>
+  </si>
+  <si>
+    <t>Defender™ Surface mount per meter to suit Life Line</t>
+  </si>
+  <si>
+    <t>Surface mount per meter to suit Life Line</t>
+  </si>
+  <si>
+    <t>Defender™ concrete mounting brackets to suit Life Line</t>
+  </si>
+  <si>
+    <t>Concrete mount per meter to suit Life Line</t>
+  </si>
+  <si>
+    <t>Additional Intermediate Bracket / Corner bend Concrete Mount to suit Life Line</t>
+  </si>
+  <si>
+    <t>Monorail additional access gate</t>
+  </si>
+  <si>
+    <t>Defender™ HD Monorail per metre</t>
+  </si>
+  <si>
+    <t>Defender™ HD Monorail per metre 2016</t>
+  </si>
+  <si>
+    <t>Metal roof deck mounts to suit HD Monorail per metre</t>
+  </si>
+  <si>
+    <t>Concrete mounts to suit HD Monorail per metre</t>
+  </si>
+  <si>
+    <t>Corner bend in HD Monorail</t>
+  </si>
+  <si>
+    <t>Corner bend in HD Monorail 2016</t>
+  </si>
+  <si>
+    <t>HD Monorail 2016 additional access gate</t>
+  </si>
+  <si>
+    <t>Supply HD Monorail Shuttle for use with Securail Rigid Rail System</t>
+  </si>
+  <si>
+    <t>Defender™ Life Line shuttle</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1488,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1091,6 +1499,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1117,10 +1531,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1458,13 +1874,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E13A78-A279-4F3E-81D0-C47DA32EEF15}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.1640625" customWidth="1"/>
@@ -1472,47 +1890,53 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>332</v>
+      </c>
+      <c r="C2" t="s">
+        <v>311</v>
       </c>
       <c r="D2" s="1">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
+      <c r="G2" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>292</v>
-      </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>454</v>
+      </c>
+      <c r="C3" t="s">
+        <v>311</v>
       </c>
       <c r="D3" s="1">
         <v>150</v>
@@ -1520,13 +1944,16 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
+      <c r="G3" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>293</v>
-      </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>284</v>
+      </c>
+      <c r="C4" t="s">
+        <v>311</v>
       </c>
       <c r="D4" s="1">
         <v>160</v>
@@ -1534,16 +1961,19 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
+      <c r="G4" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>451</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D5" s="1">
         <v>285</v>
@@ -1551,16 +1981,19 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
+      <c r="G5" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>446</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="D6" s="1">
         <v>2500</v>
@@ -1568,16 +2001,19 @@
       <c r="E6" t="s">
         <v>3</v>
       </c>
+      <c r="G6" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D7" s="1">
         <v>250</v>
@@ -1585,16 +2021,19 @@
       <c r="E7" t="s">
         <v>3</v>
       </c>
+      <c r="G7" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B8" t="s">
-        <v>321</v>
+        <v>447</v>
       </c>
       <c r="C8" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="D8" s="1">
         <v>2250</v>
@@ -1602,16 +2041,19 @@
       <c r="E8" t="s">
         <v>3</v>
       </c>
+      <c r="G8" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>450</v>
       </c>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D9" s="1">
         <v>275</v>
@@ -1619,16 +2061,19 @@
       <c r="E9" t="s">
         <v>3</v>
       </c>
+      <c r="G9" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
-        <v>321</v>
+        <v>452</v>
       </c>
       <c r="C10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D10" s="1">
         <v>550</v>
@@ -1636,16 +2081,19 @@
       <c r="E10" t="s">
         <v>3</v>
       </c>
+      <c r="G10" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11" t="s">
         <v>312</v>
-      </c>
-      <c r="B11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C11" t="s">
-        <v>313</v>
       </c>
       <c r="D11" s="1">
         <v>485</v>
@@ -1653,16 +2101,19 @@
       <c r="E11" t="s">
         <v>3</v>
       </c>
+      <c r="G11" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>448</v>
       </c>
       <c r="C12" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="D12" s="1">
         <v>2074</v>
@@ -1670,16 +2121,19 @@
       <c r="E12" t="s">
         <v>3</v>
       </c>
+      <c r="G12" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>449</v>
       </c>
       <c r="C13" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D13" s="1">
         <v>285</v>
@@ -1687,16 +2141,19 @@
       <c r="E13" t="s">
         <v>3</v>
       </c>
+      <c r="G13" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B14" t="s">
-        <v>321</v>
+        <v>445</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="D14" s="1">
         <v>5557</v>
@@ -1704,16 +2161,19 @@
       <c r="E14" t="s">
         <v>3</v>
       </c>
+      <c r="G14" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B15" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C15" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D15" s="1">
         <v>400</v>
@@ -1721,11 +2181,14 @@
       <c r="E15" t="s">
         <v>3</v>
       </c>
+      <c r="G15" t="s">
+        <v>301</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{397E4D91-B13A-4289-B7BC-48173F65EAC2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F15">
-      <sortCondition ref="B1:B15"/>
+  <autoFilter ref="B1:F1" xr:uid="{397E4D91-B13A-4289-B7BC-48173F65EAC2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F15">
+      <sortCondition ref="C1:C15"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1736,1150 +2199,1543 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A9BC90-D8CB-4804-822B-42078E490CF1}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="35.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>314</v>
       </c>
       <c r="D2" s="1">
-        <v>100</v>
+        <v>2650</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>314</v>
       </c>
       <c r="D3" s="1">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>314</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>390</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>314</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>323</v>
+        <v>391</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
+        <v>634</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>392</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>313</v>
       </c>
       <c r="D7" s="1">
-        <v>100</v>
+        <v>858</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>323</v>
+        <v>393</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>313</v>
       </c>
       <c r="D8" s="1">
-        <v>100</v>
+        <v>1082</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>313</v>
       </c>
       <c r="D9" s="1">
-        <v>100</v>
+        <v>1327</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>395</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>313</v>
       </c>
       <c r="D10" s="1">
-        <v>100</v>
+        <v>1574</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>396</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>313</v>
       </c>
       <c r="D11" s="1">
-        <v>100</v>
+        <v>1820</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>326</v>
+        <v>397</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>313</v>
       </c>
       <c r="D12" s="1">
-        <v>100</v>
+        <v>1072</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>313</v>
       </c>
       <c r="D13" s="1">
-        <v>100</v>
+        <v>1297</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>399</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>313</v>
       </c>
       <c r="D14" s="1">
-        <v>100</v>
+        <v>1520</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>400</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>313</v>
       </c>
       <c r="D15" s="1">
-        <v>100</v>
+        <v>1765</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" t="s">
+        <v>401</v>
+      </c>
+      <c r="C16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1804</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>403</v>
+      </c>
+      <c r="C18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2447</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>404</v>
+      </c>
+      <c r="C19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2992</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>405</v>
+      </c>
+      <c r="C20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3536</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
+        <v>406</v>
+      </c>
+      <c r="C21" t="s">
+        <v>317</v>
+      </c>
+      <c r="D21" s="1">
+        <v>163</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>407</v>
+      </c>
+      <c r="C22" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" s="1">
+        <v>273</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C23" t="s">
+        <v>317</v>
+      </c>
+      <c r="D23" s="1">
+        <v>209</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" t="s">
+        <v>409</v>
+      </c>
+      <c r="C24" t="s">
+        <v>317</v>
+      </c>
+      <c r="D24" s="1">
+        <v>178</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" t="s">
+        <v>410</v>
+      </c>
+      <c r="C25" t="s">
+        <v>317</v>
+      </c>
+      <c r="D25" s="1">
+        <v>178</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" t="s">
+        <v>411</v>
+      </c>
+      <c r="C26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D26" s="1">
+        <v>463</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>412</v>
+      </c>
+      <c r="C27" t="s">
+        <v>317</v>
+      </c>
+      <c r="D27" s="1">
+        <v>722</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" t="s">
+        <v>413</v>
+      </c>
+      <c r="C28" t="s">
+        <v>317</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1119</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" t="s">
+        <v>414</v>
+      </c>
+      <c r="C29" t="s">
+        <v>317</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1417</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" t="s">
+        <v>415</v>
+      </c>
+      <c r="C30" t="s">
+        <v>317</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1716</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" t="s">
+        <v>416</v>
+      </c>
+      <c r="C31" t="s">
+        <v>317</v>
+      </c>
+      <c r="D31" s="1">
+        <v>673</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" t="s">
+        <v>417</v>
+      </c>
+      <c r="C32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D32" s="1">
+        <v>408</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" t="s">
+        <v>418</v>
+      </c>
+      <c r="C33" t="s">
+        <v>314</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3280</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
         <v>156</v>
       </c>
-      <c r="B16" t="s">
-        <v>326</v>
-      </c>
-      <c r="C16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="1">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" t="s">
+        <v>419</v>
+      </c>
+      <c r="C34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3442</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
         <v>158</v>
       </c>
-      <c r="B17" t="s">
-        <v>326</v>
-      </c>
-      <c r="C17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="1">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" t="s">
-        <v>326</v>
-      </c>
-      <c r="C18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="1">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" t="s">
-        <v>326</v>
-      </c>
-      <c r="C19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="1">
-        <v>100</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="1">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" t="s">
-        <v>326</v>
-      </c>
-      <c r="C21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="1">
-        <v>100</v>
-      </c>
-      <c r="E21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" t="s">
+        <v>420</v>
+      </c>
+      <c r="C35" t="s">
+        <v>314</v>
+      </c>
+      <c r="D35" s="4">
+        <v>4701</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" t="s">
+        <v>421</v>
+      </c>
+      <c r="C36" t="s">
+        <v>314</v>
+      </c>
+      <c r="D36" s="4">
+        <v>5007</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" t="s">
+        <v>422</v>
+      </c>
+      <c r="C37" t="s">
+        <v>317</v>
+      </c>
+      <c r="D37" s="1">
+        <v>668</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" t="s">
+        <v>423</v>
+      </c>
+      <c r="C38" t="s">
+        <v>315</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1026</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" t="s">
+        <v>424</v>
+      </c>
+      <c r="C39" t="s">
+        <v>315</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1343</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" t="s">
+        <v>425</v>
+      </c>
+      <c r="C40" t="s">
+        <v>315</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1749</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41" t="s">
+        <v>426</v>
+      </c>
+      <c r="C41" t="s">
+        <v>315</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2238</v>
+      </c>
+      <c r="E41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" t="s">
+        <v>427</v>
+      </c>
+      <c r="C42" t="s">
+        <v>315</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2727</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" t="s">
+        <v>428</v>
+      </c>
+      <c r="C43" t="s">
+        <v>315</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1734</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" t="s">
+        <v>429</v>
+      </c>
+      <c r="C44" t="s">
+        <v>315</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1958</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" t="s">
+        <v>430</v>
+      </c>
+      <c r="C45" t="s">
+        <v>315</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2494</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" t="s">
+        <v>431</v>
+      </c>
+      <c r="C46" t="s">
+        <v>315</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3666</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" t="s">
+        <v>432</v>
+      </c>
+      <c r="C47" t="s">
+        <v>315</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3800</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" t="s">
+        <v>317</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1020</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>225</v>
+      </c>
+      <c r="B49" t="s">
+        <v>226</v>
+      </c>
+      <c r="C49" t="s">
+        <v>317</v>
+      </c>
+      <c r="D49" s="1">
+        <v>270</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" t="s">
+        <v>433</v>
+      </c>
+      <c r="C50" t="s">
+        <v>316</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1618</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>229</v>
+      </c>
+      <c r="B51" t="s">
+        <v>433</v>
+      </c>
+      <c r="C51" t="s">
+        <v>316</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2347</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" t="s">
+        <v>433</v>
+      </c>
+      <c r="C52" t="s">
+        <v>316</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3056</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" t="s">
+        <v>433</v>
+      </c>
+      <c r="C53" t="s">
+        <v>316</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3721</v>
+      </c>
+      <c r="E53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
         <v>234</v>
       </c>
-      <c r="B22" t="s">
-        <v>326</v>
-      </c>
-      <c r="C22" t="s">
-        <v>233</v>
-      </c>
-      <c r="D22" s="1">
-        <v>100</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>232</v>
-      </c>
-      <c r="B23" t="s">
-        <v>326</v>
-      </c>
-      <c r="C23" t="s">
-        <v>231</v>
-      </c>
-      <c r="D23" s="1">
-        <v>100</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" t="s">
-        <v>326</v>
-      </c>
-      <c r="C24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="1">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" t="s">
-        <v>322</v>
-      </c>
-      <c r="C25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="1">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" t="s">
-        <v>322</v>
-      </c>
-      <c r="C26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="1">
-        <v>100</v>
-      </c>
-      <c r="E26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" t="s">
-        <v>322</v>
-      </c>
-      <c r="C27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="1">
-        <v>100</v>
-      </c>
-      <c r="E27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" t="s">
-        <v>322</v>
-      </c>
-      <c r="C28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="1">
-        <v>100</v>
-      </c>
-      <c r="E28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" t="s">
-        <v>322</v>
-      </c>
-      <c r="C29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="1">
-        <v>100</v>
-      </c>
-      <c r="E29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" t="s">
-        <v>322</v>
-      </c>
-      <c r="C30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="1">
-        <v>100</v>
-      </c>
-      <c r="E30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" t="s">
-        <v>322</v>
-      </c>
-      <c r="C31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="1">
-        <v>100</v>
-      </c>
-      <c r="E31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" t="s">
-        <v>322</v>
-      </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="1">
-        <v>100</v>
-      </c>
-      <c r="E32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" t="s">
-        <v>322</v>
-      </c>
-      <c r="C33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="1">
-        <v>100</v>
-      </c>
-      <c r="E33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" t="s">
-        <v>322</v>
-      </c>
-      <c r="C34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="1">
-        <v>100</v>
-      </c>
-      <c r="E34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" t="s">
-        <v>322</v>
-      </c>
-      <c r="C35" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="1">
-        <v>100</v>
-      </c>
-      <c r="E35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" t="s">
-        <v>322</v>
-      </c>
-      <c r="C36" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="1">
-        <v>100</v>
-      </c>
-      <c r="E36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" t="s">
-        <v>322</v>
-      </c>
-      <c r="C37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="1">
-        <v>100</v>
-      </c>
-      <c r="E37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" t="s">
-        <v>322</v>
-      </c>
-      <c r="C38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="1">
-        <v>100</v>
-      </c>
-      <c r="E38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" t="s">
-        <v>322</v>
-      </c>
-      <c r="C39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="1">
-        <v>100</v>
-      </c>
-      <c r="E39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>268</v>
-      </c>
-      <c r="B40" t="s">
-        <v>325</v>
-      </c>
-      <c r="C40" t="s">
-        <v>267</v>
-      </c>
-      <c r="D40" s="1">
-        <v>100</v>
-      </c>
-      <c r="E40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>262</v>
-      </c>
-      <c r="B41" t="s">
-        <v>325</v>
-      </c>
-      <c r="C41" t="s">
-        <v>261</v>
-      </c>
-      <c r="D41" s="1">
-        <v>100</v>
-      </c>
-      <c r="E41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54" t="s">
+        <v>433</v>
+      </c>
+      <c r="C54" t="s">
+        <v>316</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4507</v>
+      </c>
+      <c r="E54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" t="s">
+        <v>433</v>
+      </c>
+      <c r="C55" t="s">
+        <v>316</v>
+      </c>
+      <c r="D55" s="1">
+        <v>4957</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>239</v>
+      </c>
+      <c r="B56" t="s">
+        <v>434</v>
+      </c>
+      <c r="C56" t="s">
+        <v>316</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5368</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>241</v>
+      </c>
+      <c r="B57" t="s">
+        <v>435</v>
+      </c>
+      <c r="C57" t="s">
+        <v>316</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4616</v>
+      </c>
+      <c r="E57" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>243</v>
+      </c>
+      <c r="B58" t="s">
+        <v>436</v>
+      </c>
+      <c r="C58" t="s">
+        <v>316</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3864</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>245</v>
+      </c>
+      <c r="B59" t="s">
+        <v>437</v>
+      </c>
+      <c r="C59" t="s">
+        <v>316</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3113</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>247</v>
+      </c>
+      <c r="B60" t="s">
+        <v>438</v>
+      </c>
+      <c r="C60" t="s">
+        <v>316</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2362</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>249</v>
+      </c>
+      <c r="B61" t="s">
+        <v>439</v>
+      </c>
+      <c r="C61" t="s">
+        <v>316</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1610</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" t="s">
+        <v>440</v>
+      </c>
+      <c r="C62" t="s">
+        <v>316</v>
+      </c>
+      <c r="D62" s="1">
+        <v>6267</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>253</v>
+      </c>
+      <c r="B63" t="s">
+        <v>441</v>
+      </c>
+      <c r="C63" t="s">
+        <v>316</v>
+      </c>
+      <c r="D63" s="1">
+        <v>7554</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>255</v>
+      </c>
+      <c r="B64" t="s">
+        <v>442</v>
+      </c>
+      <c r="C64" t="s">
+        <v>316</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5367</v>
+      </c>
+      <c r="E64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>257</v>
+      </c>
+      <c r="B65" t="s">
+        <v>443</v>
+      </c>
+      <c r="C65" t="s">
+        <v>316</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1445</v>
+      </c>
+      <c r="E65" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>259</v>
+      </c>
+      <c r="B66" t="s">
+        <v>444</v>
+      </c>
+      <c r="C66" t="s">
+        <v>316</v>
+      </c>
+      <c r="D66" s="1">
+        <v>320</v>
+      </c>
+      <c r="E66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
         <v>260</v>
       </c>
-      <c r="B42" t="s">
-        <v>325</v>
-      </c>
-      <c r="C42" t="s">
-        <v>259</v>
-      </c>
-      <c r="D42" s="1">
-        <v>100</v>
-      </c>
-      <c r="E42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>248</v>
-      </c>
-      <c r="B43" t="s">
-        <v>325</v>
-      </c>
-      <c r="C43" t="s">
-        <v>247</v>
-      </c>
-      <c r="D43" s="1">
-        <v>100</v>
-      </c>
-      <c r="E43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>264</v>
-      </c>
-      <c r="B44" t="s">
-        <v>325</v>
-      </c>
-      <c r="C44" t="s">
-        <v>263</v>
-      </c>
-      <c r="D44" s="1">
-        <v>100</v>
-      </c>
-      <c r="E44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>256</v>
-      </c>
-      <c r="B45" t="s">
-        <v>325</v>
-      </c>
-      <c r="C45" t="s">
-        <v>255</v>
-      </c>
-      <c r="D45" s="1">
-        <v>100</v>
-      </c>
-      <c r="E45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>254</v>
-      </c>
-      <c r="B46" t="s">
-        <v>325</v>
-      </c>
-      <c r="C46" t="s">
-        <v>253</v>
-      </c>
-      <c r="D46" s="1">
-        <v>100</v>
-      </c>
-      <c r="E46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>252</v>
-      </c>
-      <c r="B47" t="s">
-        <v>325</v>
-      </c>
-      <c r="C47" t="s">
-        <v>251</v>
-      </c>
-      <c r="D47" s="1">
-        <v>100</v>
-      </c>
-      <c r="E47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>250</v>
-      </c>
-      <c r="B48" t="s">
-        <v>325</v>
-      </c>
-      <c r="C48" t="s">
-        <v>249</v>
-      </c>
-      <c r="D48" s="1">
-        <v>100</v>
-      </c>
-      <c r="E48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>258</v>
-      </c>
-      <c r="B49" t="s">
-        <v>325</v>
-      </c>
-      <c r="C49" t="s">
-        <v>257</v>
-      </c>
-      <c r="D49" s="1">
-        <v>100</v>
-      </c>
-      <c r="E49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>266</v>
-      </c>
-      <c r="B50" t="s">
-        <v>325</v>
-      </c>
-      <c r="C50" t="s">
-        <v>265</v>
-      </c>
-      <c r="D50" s="1">
-        <v>100</v>
-      </c>
-      <c r="E50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>236</v>
-      </c>
-      <c r="B51" t="s">
-        <v>325</v>
-      </c>
-      <c r="C51" t="s">
-        <v>235</v>
-      </c>
-      <c r="D51" s="1">
-        <v>100</v>
-      </c>
-      <c r="E51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>238</v>
-      </c>
-      <c r="B52" t="s">
-        <v>325</v>
-      </c>
-      <c r="C52" t="s">
-        <v>237</v>
-      </c>
-      <c r="D52" s="1">
-        <v>100</v>
-      </c>
-      <c r="E52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>240</v>
-      </c>
-      <c r="B53" t="s">
-        <v>325</v>
-      </c>
-      <c r="C53" t="s">
-        <v>239</v>
-      </c>
-      <c r="D53" s="1">
-        <v>100</v>
-      </c>
-      <c r="E53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>242</v>
-      </c>
-      <c r="B54" t="s">
-        <v>325</v>
-      </c>
-      <c r="C54" t="s">
-        <v>241</v>
-      </c>
-      <c r="D54" s="1">
-        <v>100</v>
-      </c>
-      <c r="E54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>244</v>
-      </c>
-      <c r="B55" t="s">
-        <v>325</v>
-      </c>
-      <c r="C55" t="s">
-        <v>243</v>
-      </c>
-      <c r="D55" s="1">
-        <v>100</v>
-      </c>
-      <c r="E55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>246</v>
-      </c>
-      <c r="B56" t="s">
-        <v>325</v>
-      </c>
-      <c r="C56" t="s">
-        <v>245</v>
-      </c>
-      <c r="D56" s="1">
-        <v>100</v>
-      </c>
-      <c r="E56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>222</v>
-      </c>
-      <c r="B57" t="s">
-        <v>324</v>
-      </c>
-      <c r="C57" t="s">
-        <v>221</v>
-      </c>
-      <c r="D57" s="1">
-        <v>100</v>
-      </c>
-      <c r="E57" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>224</v>
-      </c>
-      <c r="B58" t="s">
-        <v>324</v>
-      </c>
-      <c r="C58" t="s">
-        <v>223</v>
-      </c>
-      <c r="D58" s="1">
-        <v>100</v>
-      </c>
-      <c r="E58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>226</v>
-      </c>
-      <c r="B59" t="s">
-        <v>324</v>
-      </c>
-      <c r="C59" t="s">
-        <v>225</v>
-      </c>
-      <c r="D59" s="1">
-        <v>100</v>
-      </c>
-      <c r="E59" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>228</v>
-      </c>
-      <c r="B60" t="s">
-        <v>324</v>
-      </c>
-      <c r="C60" t="s">
-        <v>227</v>
-      </c>
-      <c r="D60" s="1">
-        <v>100</v>
-      </c>
-      <c r="E60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>230</v>
-      </c>
-      <c r="B61" t="s">
-        <v>324</v>
-      </c>
-      <c r="C61" t="s">
-        <v>229</v>
-      </c>
-      <c r="D61" s="1">
-        <v>100</v>
-      </c>
-      <c r="E61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>212</v>
-      </c>
-      <c r="B62" t="s">
-        <v>324</v>
-      </c>
-      <c r="C62" t="s">
-        <v>211</v>
-      </c>
-      <c r="D62" s="1">
-        <v>100</v>
-      </c>
-      <c r="E62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>214</v>
-      </c>
-      <c r="B63" t="s">
-        <v>324</v>
-      </c>
-      <c r="C63" t="s">
-        <v>213</v>
-      </c>
-      <c r="D63" s="1">
-        <v>100</v>
-      </c>
-      <c r="E63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>216</v>
-      </c>
-      <c r="B64" t="s">
-        <v>324</v>
-      </c>
-      <c r="C64" t="s">
-        <v>215</v>
-      </c>
-      <c r="D64" s="1">
-        <v>100</v>
-      </c>
-      <c r="E64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>218</v>
-      </c>
-      <c r="B65" t="s">
-        <v>324</v>
-      </c>
-      <c r="C65" t="s">
-        <v>217</v>
-      </c>
-      <c r="D65" s="1">
-        <v>100</v>
-      </c>
-      <c r="E65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>220</v>
-      </c>
-      <c r="B66" t="s">
-        <v>324</v>
-      </c>
-      <c r="C66" t="s">
-        <v>219</v>
-      </c>
-      <c r="D66" s="1">
-        <v>100</v>
-      </c>
-      <c r="E66" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{397E4D91-B13A-4289-B7BC-48173F65EAC2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F66">
-      <sortCondition ref="B1:B66"/>
+  <autoFilter ref="A1:H1" xr:uid="{81A9BC90-D8CB-4804-822B-42078E490CF1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H66">
+      <sortCondition ref="A1:A66"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2890,13 +3746,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B75A2E9-CA8D-495A-8CDE-17E1A60026BD}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.1640625" customWidth="1"/>
@@ -2904,524 +3760,696 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="D2" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
+      <c r="F2" s="1">
+        <v>300</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="D3" s="1">
-        <v>100</v>
+        <v>518</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
+      <c r="F4" s="1">
+        <v>380</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
+      <c r="F6" s="1">
+        <v>250</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="C7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="D7" s="1">
-        <v>100</v>
+        <v>323</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="D8" s="1">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="D9" s="1">
-        <v>100</v>
+        <v>467</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>272</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="D10" s="1">
-        <v>100</v>
+        <v>467</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>320</v>
       </c>
       <c r="D11" s="1">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>400</v>
+      </c>
+      <c r="G11" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>321</v>
       </c>
       <c r="D12" s="1">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G12" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>321</v>
       </c>
       <c r="D13" s="1">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G13" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="D14" s="1">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
+      <c r="F14" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>308</v>
       </c>
       <c r="B15" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>321</v>
       </c>
       <c r="D15" s="1">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" s="2">
+        <v>102</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C17" t="s">
+        <v>318</v>
+      </c>
+      <c r="D17" s="2">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" t="s">
+        <v>376</v>
+      </c>
+      <c r="C18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D18" s="1">
+        <v>160</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>750</v>
+      </c>
+      <c r="G18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D19" s="1">
+        <v>142</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>750</v>
+      </c>
+      <c r="G19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" t="s">
+        <v>321</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4772</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" t="s">
         <v>200</v>
       </c>
-      <c r="B16" t="s">
-        <v>327</v>
-      </c>
-      <c r="C16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" s="2">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>327</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6301</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" t="s">
+        <v>319</v>
+      </c>
+      <c r="D22" s="1">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="1">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F22" s="1">
+        <v>250</v>
+      </c>
+      <c r="G22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" t="s">
+        <v>379</v>
+      </c>
+      <c r="C23" t="s">
+        <v>319</v>
+      </c>
+      <c r="D23" s="1">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B24" t="s">
+        <v>380</v>
+      </c>
+      <c r="C24" t="s">
+        <v>319</v>
+      </c>
+      <c r="D24" s="1">
+        <v>130</v>
+      </c>
+      <c r="E24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="1">
-        <v>100</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>198</v>
-      </c>
-      <c r="B20" t="s">
-        <v>327</v>
-      </c>
-      <c r="C20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="2">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>327</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="1">
-        <v>100</v>
-      </c>
-      <c r="E21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>327</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="1">
-        <v>100</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C23" t="s">
-        <v>203</v>
-      </c>
-      <c r="D23" s="1">
-        <v>100</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24" t="s">
-        <v>330</v>
-      </c>
-      <c r="C24" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="1">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="B25" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>319</v>
       </c>
       <c r="D25" s="1">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="1">
+        <v>350</v>
+      </c>
+      <c r="G25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>319</v>
       </c>
       <c r="D26" s="1">
-        <v>100</v>
+        <v>570</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="1">
+        <v>600</v>
+      </c>
+      <c r="G26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>196</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>319</v>
       </c>
       <c r="D27" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>206</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="C28" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="D28" s="1">
-        <v>100</v>
+        <v>723</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>319</v>
       </c>
       <c r="D29" s="1">
-        <v>100</v>
+        <v>1063</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="C30" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D30" s="1">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{397E4D91-B13A-4289-B7BC-48173F65EAC2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
-      <sortCondition ref="B1:B30"/>
+  <autoFilter ref="A1:G30" xr:uid="{2B75A2E9-CA8D-495A-8CDE-17E1A60026BD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G30">
+      <sortCondition ref="A1:A30"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3430,608 +4458,763 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5309DB-3E4B-4A2E-B9D0-0761901A8DC7}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="1">
-        <v>100</v>
+        <v>327</v>
+      </c>
+      <c r="D2" s="2">
+        <v>110</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>470</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
+        <v>327</v>
+      </c>
+      <c r="D3" s="2">
+        <v>110</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>470</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>459</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>100</v>
+        <v>327</v>
+      </c>
+      <c r="D4" s="2">
+        <v>153</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>470</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>336</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>100</v>
+        <v>327</v>
+      </c>
+      <c r="D5" s="2">
+        <v>328.5</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>640</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>100</v>
+        <v>327</v>
+      </c>
+      <c r="D6" s="2">
+        <v>102</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>460</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>100</v>
+        <v>323</v>
+      </c>
+      <c r="D7" s="2">
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G7" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>100</v>
+        <v>325</v>
+      </c>
+      <c r="D8" s="2">
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>332</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="1">
-        <v>100</v>
+        <v>325</v>
+      </c>
+      <c r="D9" s="2">
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1">
-        <v>100</v>
+        <v>323</v>
+      </c>
+      <c r="D10" s="2">
+        <v>102</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>466</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="1">
-        <v>100</v>
+        <v>323</v>
+      </c>
+      <c r="D11" s="2">
+        <v>127</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
+        <v>468</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="1">
-        <v>100</v>
+        <v>324</v>
+      </c>
+      <c r="D12" s="2">
+        <v>139</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>332</v>
+        <v>469</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="1">
-        <v>100</v>
+        <v>324</v>
+      </c>
+      <c r="D13" s="2">
+        <v>139</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
+      <c r="F13" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>332</v>
+        <v>470</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D14" s="1">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>471</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>324</v>
       </c>
       <c r="D15" s="1">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>472</v>
+      </c>
+      <c r="C16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" s="1">
+        <v>568</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>467</v>
+      </c>
+      <c r="C17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="1">
+        <v>138</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>473</v>
+      </c>
+      <c r="C18" t="s">
+        <v>324</v>
+      </c>
+      <c r="D18" s="1">
+        <v>568</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>474</v>
+      </c>
+      <c r="C19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D19" s="1">
+        <v>138</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
         <v>64</v>
       </c>
-      <c r="B16" t="s">
-        <v>333</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>475</v>
+      </c>
+      <c r="C20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D20" s="1">
+        <v>850</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" s="1">
+        <v>750</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>476</v>
+      </c>
+      <c r="C22" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" s="1">
+        <v>750</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>458</v>
+      </c>
+      <c r="C23" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="1">
+        <v>850</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" s="1">
+        <v>850</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" s="1">
+        <v>400</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C26" t="s">
+        <v>325</v>
+      </c>
+      <c r="D26" s="1">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
+        <v>342</v>
+      </c>
+      <c r="C27" t="s">
+        <v>325</v>
+      </c>
+      <c r="D27" s="1">
         <v>63</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" s="1">
+        <v>950</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C29" t="s">
+        <v>324</v>
+      </c>
+      <c r="D29" s="1">
+        <v>400</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1150</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>455</v>
+      </c>
+      <c r="C31" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6915</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>456</v>
+      </c>
+      <c r="C32" t="s">
+        <v>322</v>
+      </c>
+      <c r="D32" s="1">
+        <v>537</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4150</v>
+      </c>
+      <c r="G32" t="s">
         <v>100</v>
       </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>333</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="1">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>333</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="1">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" t="s">
-        <v>333</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="1">
-        <v>100</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="1">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" t="s">
-        <v>333</v>
-      </c>
-      <c r="C21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="1">
-        <v>100</v>
-      </c>
-      <c r="E21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" t="s">
-        <v>333</v>
-      </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="1">
-        <v>100</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>333</v>
-      </c>
-      <c r="C23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="1">
-        <v>100</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>333</v>
-      </c>
-      <c r="C24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="1">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" t="s">
-        <v>333</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="1">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" t="s">
-        <v>333</v>
-      </c>
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="1">
-        <v>100</v>
-      </c>
-      <c r="E26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" t="s">
-        <v>333</v>
-      </c>
-      <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="1">
-        <v>100</v>
-      </c>
-      <c r="E27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>333</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="1">
-        <v>100</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" t="s">
-        <v>333</v>
-      </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="1">
-        <v>100</v>
-      </c>
-      <c r="E29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>333</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="1">
-        <v>100</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" t="s">
-        <v>334</v>
-      </c>
-      <c r="C31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="1">
-        <v>100</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" t="s">
-        <v>334</v>
-      </c>
-      <c r="C32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="1">
-        <v>100</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" t="s">
-        <v>334</v>
-      </c>
-      <c r="C33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="1">
-        <v>100</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>334</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="1">
-        <v>100</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{397E4D91-B13A-4289-B7BC-48173F65EAC2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F34">
-      <sortCondition ref="B1"/>
+  <autoFilter ref="A1:G32" xr:uid="{9D5309DB-3E4B-4A2E-B9D0-0761901A8DC7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G32">
+      <sortCondition ref="A1:A32"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4042,198 +5225,255 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008F21DF-775C-45A5-A9DB-C2774E3EF8F5}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>326</v>
       </c>
       <c r="D2" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>300</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="D3" s="1">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>500</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>326</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>326</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>326</v>
       </c>
       <c r="D7" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>326</v>
       </c>
       <c r="D8" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>326</v>
       </c>
       <c r="D9" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="D10" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
       </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{397E4D91-B13A-4289-B7BC-48173F65EAC2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
-      <sortCondition ref="A1"/>
+  <autoFilter ref="A1:G10" xr:uid="{008F21DF-775C-45A5-A9DB-C2774E3EF8F5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+      <sortCondition ref="A1:A10"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4244,171 +5484,214 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB7185E-3C02-4296-952B-0ECCA6C85F7E}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>329</v>
       </c>
       <c r="D2" s="1">
-        <v>100</v>
+        <v>319</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>329</v>
       </c>
       <c r="D3" s="1">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" s="1">
+        <v>425</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1">
-        <v>100</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="1">
+        <v>23.15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1">
-        <v>100</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>328</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
+        <v>664.89</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="D7" s="1">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="D8" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B9" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="C9" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="D9" s="1">
         <v>500</v>
@@ -4416,11 +5699,17 @@
       <c r="E9" t="s">
         <v>3</v>
       </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>309</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{397E4D91-B13A-4289-B7BC-48173F65EAC2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F9">
-      <sortCondition ref="B1"/>
+  <autoFilter ref="A1:G9" xr:uid="{3CB7185E-3C02-4296-952B-0ECCA6C85F7E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+      <sortCondition ref="A1:A9"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Defender Price List.xlsx
+++ b/Defender Price List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcot./Library/Mobile Documents/com~apple~CloudDocs/_Job applications/Defender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27D97B0-BE7F-E94E-846D-CEA16300284F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDB7353-1701-CB48-A981-0A3700CBD7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="680" windowWidth="26720" windowHeight="21660" activeTab="1" xr2:uid="{C4E6C565-55EC-4433-B17C-E6607DE47B4E}"/>
+    <workbookView xWindow="6280" yWindow="680" windowWidth="26720" windowHeight="21660" xr2:uid="{C4E6C565-55EC-4433-B17C-E6607DE47B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Site Items" sheetId="13" r:id="rId1"/>
@@ -21,11 +21,11 @@
     <sheet name="Coles" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Coles!$A$1:$G$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Height Safety'!$A$1:$G$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ladders + Stairs'!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Misc!$A$1:$G$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Site Items'!$B$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5">Coles!$A$1:$F$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">'Height Safety'!$A$1:$F$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ladders + Stairs'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4">Misc!$A$1:$F$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Site Items'!$A$1:$G$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Walkway + Platforms'!$A$1:$G$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="476">
   <si>
     <t>Unit</t>
   </si>
@@ -1040,18 +1040,12 @@
     <t>🛒 Coles BOH Fencing</t>
   </si>
   <si>
-    <t>Field 2</t>
-  </si>
-  <si>
     <t>Suggested Min. Charge</t>
   </si>
   <si>
     <t>Height Safety Engineer</t>
   </si>
   <si>
-    <t>DA1826</t>
-  </si>
-  <si>
     <t>Defender™ 15kN Universal Top mount anchor Certified to AS 5532-2013 fixed to purlin -max 55mm thermal insulation</t>
   </si>
   <si>
@@ -1479,6 +1473,9 @@
   </si>
   <si>
     <t>Defender™ Life Line shuttle</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -1874,18 +1871,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E13A78-A279-4F3E-81D0-C47DA32EEF15}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1893,7 +1889,7 @@
         <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>281</v>
+        <v>475</v>
       </c>
       <c r="C1" t="s">
         <v>280</v>
@@ -1905,184 +1901,190 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G1" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D2" s="1">
-        <v>120</v>
+        <v>5557</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>332</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>288</v>
+      </c>
       <c r="B3" t="s">
-        <v>454</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D3" s="1">
-        <v>150</v>
+        <v>2500</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>283</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>290</v>
+      </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D4" s="1">
-        <v>160</v>
+        <v>2250</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>284</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s">
-        <v>451</v>
+        <v>291</v>
       </c>
       <c r="C5" t="s">
         <v>312</v>
       </c>
       <c r="D5" s="1">
-        <v>285</v>
+        <v>2074</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>297</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B6" t="s">
-        <v>446</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
         <v>312</v>
       </c>
       <c r="D6" s="1">
-        <v>2500</v>
+        <v>285</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>287</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C7" t="s">
         <v>312</v>
       </c>
       <c r="D7" s="1">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
-        <v>447</v>
+        <v>297</v>
       </c>
       <c r="C8" t="s">
         <v>312</v>
       </c>
       <c r="D8" s="1">
-        <v>2250</v>
+        <v>285</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>289</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
-        <v>450</v>
+        <v>301</v>
       </c>
       <c r="C9" t="s">
         <v>312</v>
       </c>
       <c r="D9" s="1">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B10" t="s">
-        <v>452</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
         <v>312</v>
       </c>
       <c r="D10" s="1">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2090,7 +2092,7 @@
         <v>304</v>
       </c>
       <c r="B11" t="s">
-        <v>453</v>
+        <v>303</v>
       </c>
       <c r="C11" t="s">
         <v>312</v>
@@ -2102,93 +2104,84 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>303</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B12" t="s">
-        <v>448</v>
+        <v>305</v>
       </c>
       <c r="C12" t="s">
         <v>312</v>
       </c>
       <c r="D12" s="1">
-        <v>2074</v>
+        <v>550</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>291</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>294</v>
-      </c>
       <c r="B13" t="s">
-        <v>449</v>
+        <v>331</v>
       </c>
       <c r="C13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D13" s="1">
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>286</v>
-      </c>
       <c r="B14" t="s">
-        <v>445</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D14" s="1">
-        <v>5557</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>285</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>299</v>
-      </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D15" s="1">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:F1" xr:uid="{397E4D91-B13A-4289-B7BC-48173F65EAC2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F15">
-      <sortCondition ref="C1:C15"/>
+  <autoFilter ref="A1:G15" xr:uid="{32E13A78-A279-4F3E-81D0-C47DA32EEF15}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
+      <sortCondition ref="A1:A15"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2199,19 +2192,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A9BC90-D8CB-4804-822B-42078E490CF1}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2219,7 +2210,7 @@
         <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>281</v>
+        <v>475</v>
       </c>
       <c r="C1" t="s">
         <v>280</v>
@@ -2231,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G1" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2242,7 +2233,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>314</v>
@@ -2257,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2265,7 +2256,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>314</v>
@@ -2280,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2288,7 +2279,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>314</v>
@@ -2303,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2311,7 +2302,7 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>390</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>314</v>
@@ -2326,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2334,7 +2325,7 @@
         <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
         <v>313</v>
@@ -2349,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2357,7 +2348,7 @@
         <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>392</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
         <v>313</v>
@@ -2372,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2380,7 +2371,7 @@
         <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>393</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
         <v>313</v>
@@ -2395,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2403,7 +2394,7 @@
         <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>394</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
         <v>313</v>
@@ -2418,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2426,7 +2417,7 @@
         <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>395</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
         <v>313</v>
@@ -2441,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2449,7 +2440,7 @@
         <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>396</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
         <v>313</v>
@@ -2464,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2472,7 +2463,7 @@
         <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>397</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
         <v>313</v>
@@ -2487,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2495,7 +2486,7 @@
         <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>398</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
         <v>313</v>
@@ -2510,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2518,7 +2509,7 @@
         <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>399</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
         <v>313</v>
@@ -2533,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2541,7 +2532,7 @@
         <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
         <v>313</v>
@@ -2556,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2564,7 +2555,7 @@
         <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>401</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
         <v>313</v>
@@ -2579,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>122</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2587,7 +2578,7 @@
         <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>402</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
         <v>313</v>
@@ -2602,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2610,7 +2601,7 @@
         <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>403</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
         <v>313</v>
@@ -2625,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>126</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2633,7 +2624,7 @@
         <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>404</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
         <v>313</v>
@@ -2648,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2656,7 +2647,7 @@
         <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>405</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
         <v>313</v>
@@ -2671,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>130</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2679,7 +2670,7 @@
         <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>406</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
         <v>317</v>
@@ -2694,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>132</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2702,7 +2693,7 @@
         <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>407</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
         <v>317</v>
@@ -2717,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2725,7 +2716,7 @@
         <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>408</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
         <v>317</v>
@@ -2740,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2748,7 +2739,7 @@
         <v>137</v>
       </c>
       <c r="B24" t="s">
-        <v>409</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
         <v>317</v>
@@ -2763,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>138</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2771,7 +2762,7 @@
         <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>410</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
         <v>317</v>
@@ -2786,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>140</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2794,7 +2785,7 @@
         <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>411</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
         <v>317</v>
@@ -2809,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>142</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2817,7 +2808,7 @@
         <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>412</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
         <v>317</v>
@@ -2832,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>144</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2840,7 +2831,7 @@
         <v>145</v>
       </c>
       <c r="B28" t="s">
-        <v>413</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
         <v>317</v>
@@ -2855,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2863,7 +2854,7 @@
         <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>414</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
         <v>317</v>
@@ -2878,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>148</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2886,7 +2877,7 @@
         <v>149</v>
       </c>
       <c r="B30" t="s">
-        <v>415</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
         <v>317</v>
@@ -2901,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>150</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2909,7 +2900,7 @@
         <v>151</v>
       </c>
       <c r="B31" t="s">
-        <v>416</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
         <v>317</v>
@@ -2924,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>152</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2932,7 +2923,7 @@
         <v>153</v>
       </c>
       <c r="B32" t="s">
-        <v>417</v>
+        <v>154</v>
       </c>
       <c r="C32" t="s">
         <v>317</v>
@@ -2947,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>154</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2955,7 +2946,7 @@
         <v>155</v>
       </c>
       <c r="B33" t="s">
-        <v>418</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
         <v>314</v>
@@ -2970,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>156</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2978,7 +2969,7 @@
         <v>157</v>
       </c>
       <c r="B34" t="s">
-        <v>419</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
         <v>314</v>
@@ -2993,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>158</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -3001,7 +2992,7 @@
         <v>159</v>
       </c>
       <c r="B35" t="s">
-        <v>420</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
         <v>314</v>
@@ -3016,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>160</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -3024,7 +3015,7 @@
         <v>161</v>
       </c>
       <c r="B36" t="s">
-        <v>421</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s">
         <v>314</v>
@@ -3039,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>162</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -3047,7 +3038,7 @@
         <v>201</v>
       </c>
       <c r="B37" t="s">
-        <v>422</v>
+        <v>202</v>
       </c>
       <c r="C37" t="s">
         <v>317</v>
@@ -3062,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>202</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -3070,7 +3061,7 @@
         <v>203</v>
       </c>
       <c r="B38" t="s">
-        <v>423</v>
+        <v>204</v>
       </c>
       <c r="C38" t="s">
         <v>315</v>
@@ -3085,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>204</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -3093,7 +3084,7 @@
         <v>205</v>
       </c>
       <c r="B39" t="s">
-        <v>424</v>
+        <v>206</v>
       </c>
       <c r="C39" t="s">
         <v>315</v>
@@ -3108,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>206</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -3116,7 +3107,7 @@
         <v>207</v>
       </c>
       <c r="B40" t="s">
-        <v>425</v>
+        <v>208</v>
       </c>
       <c r="C40" t="s">
         <v>315</v>
@@ -3131,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>208</v>
+        <v>423</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -3139,7 +3130,7 @@
         <v>209</v>
       </c>
       <c r="B41" t="s">
-        <v>426</v>
+        <v>210</v>
       </c>
       <c r="C41" t="s">
         <v>315</v>
@@ -3154,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>210</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -3162,7 +3153,7 @@
         <v>211</v>
       </c>
       <c r="B42" t="s">
-        <v>427</v>
+        <v>212</v>
       </c>
       <c r="C42" t="s">
         <v>315</v>
@@ -3177,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>212</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -3185,7 +3176,7 @@
         <v>213</v>
       </c>
       <c r="B43" t="s">
-        <v>428</v>
+        <v>214</v>
       </c>
       <c r="C43" t="s">
         <v>315</v>
@@ -3200,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>214</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3208,7 +3199,7 @@
         <v>215</v>
       </c>
       <c r="B44" t="s">
-        <v>429</v>
+        <v>216</v>
       </c>
       <c r="C44" t="s">
         <v>315</v>
@@ -3223,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>216</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -3231,7 +3222,7 @@
         <v>217</v>
       </c>
       <c r="B45" t="s">
-        <v>430</v>
+        <v>218</v>
       </c>
       <c r="C45" t="s">
         <v>315</v>
@@ -3246,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>218</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3254,7 +3245,7 @@
         <v>219</v>
       </c>
       <c r="B46" t="s">
-        <v>431</v>
+        <v>220</v>
       </c>
       <c r="C46" t="s">
         <v>315</v>
@@ -3269,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>220</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3277,7 +3268,7 @@
         <v>221</v>
       </c>
       <c r="B47" t="s">
-        <v>432</v>
+        <v>222</v>
       </c>
       <c r="C47" t="s">
         <v>315</v>
@@ -3292,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>222</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3346,7 +3337,7 @@
         <v>227</v>
       </c>
       <c r="B50" t="s">
-        <v>433</v>
+        <v>228</v>
       </c>
       <c r="C50" t="s">
         <v>316</v>
@@ -3361,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>228</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -3369,7 +3360,7 @@
         <v>229</v>
       </c>
       <c r="B51" t="s">
-        <v>433</v>
+        <v>230</v>
       </c>
       <c r="C51" t="s">
         <v>316</v>
@@ -3384,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>230</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -3392,7 +3383,7 @@
         <v>231</v>
       </c>
       <c r="B52" t="s">
-        <v>433</v>
+        <v>232</v>
       </c>
       <c r="C52" t="s">
         <v>316</v>
@@ -3407,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>232</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -3415,7 +3406,7 @@
         <v>233</v>
       </c>
       <c r="B53" t="s">
-        <v>433</v>
+        <v>234</v>
       </c>
       <c r="C53" t="s">
         <v>316</v>
@@ -3430,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>234</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -3438,7 +3429,7 @@
         <v>235</v>
       </c>
       <c r="B54" t="s">
-        <v>433</v>
+        <v>236</v>
       </c>
       <c r="C54" t="s">
         <v>316</v>
@@ -3453,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>236</v>
+        <v>431</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -3461,7 +3452,7 @@
         <v>237</v>
       </c>
       <c r="B55" t="s">
-        <v>433</v>
+        <v>238</v>
       </c>
       <c r="C55" t="s">
         <v>316</v>
@@ -3476,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>238</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -3484,7 +3475,7 @@
         <v>239</v>
       </c>
       <c r="B56" t="s">
-        <v>434</v>
+        <v>240</v>
       </c>
       <c r="C56" t="s">
         <v>316</v>
@@ -3499,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>240</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -3507,7 +3498,7 @@
         <v>241</v>
       </c>
       <c r="B57" t="s">
-        <v>435</v>
+        <v>242</v>
       </c>
       <c r="C57" t="s">
         <v>316</v>
@@ -3522,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>242</v>
+        <v>433</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -3530,7 +3521,7 @@
         <v>243</v>
       </c>
       <c r="B58" t="s">
-        <v>436</v>
+        <v>244</v>
       </c>
       <c r="C58" t="s">
         <v>316</v>
@@ -3545,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>244</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -3553,7 +3544,7 @@
         <v>245</v>
       </c>
       <c r="B59" t="s">
-        <v>437</v>
+        <v>246</v>
       </c>
       <c r="C59" t="s">
         <v>316</v>
@@ -3568,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>246</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -3576,7 +3567,7 @@
         <v>247</v>
       </c>
       <c r="B60" t="s">
-        <v>438</v>
+        <v>248</v>
       </c>
       <c r="C60" t="s">
         <v>316</v>
@@ -3591,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>248</v>
+        <v>436</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -3599,7 +3590,7 @@
         <v>249</v>
       </c>
       <c r="B61" t="s">
-        <v>439</v>
+        <v>250</v>
       </c>
       <c r="C61" t="s">
         <v>316</v>
@@ -3614,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>250</v>
+        <v>437</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -3622,7 +3613,7 @@
         <v>251</v>
       </c>
       <c r="B62" t="s">
-        <v>440</v>
+        <v>252</v>
       </c>
       <c r="C62" t="s">
         <v>316</v>
@@ -3637,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>252</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -3645,7 +3636,7 @@
         <v>253</v>
       </c>
       <c r="B63" t="s">
-        <v>441</v>
+        <v>254</v>
       </c>
       <c r="C63" t="s">
         <v>316</v>
@@ -3660,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>254</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -3668,7 +3659,7 @@
         <v>255</v>
       </c>
       <c r="B64" t="s">
-        <v>442</v>
+        <v>256</v>
       </c>
       <c r="C64" t="s">
         <v>316</v>
@@ -3683,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>256</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -3691,7 +3682,7 @@
         <v>257</v>
       </c>
       <c r="B65" t="s">
-        <v>443</v>
+        <v>258</v>
       </c>
       <c r="C65" t="s">
         <v>316</v>
@@ -3706,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>258</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -3714,7 +3705,7 @@
         <v>259</v>
       </c>
       <c r="B66" t="s">
-        <v>444</v>
+        <v>260</v>
       </c>
       <c r="C66" t="s">
         <v>316</v>
@@ -3729,12 +3720,12 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>260</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{81A9BC90-D8CB-4804-822B-42078E490CF1}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H66">
+  <autoFilter ref="A1:G1" xr:uid="{81A9BC90-D8CB-4804-822B-42078E490CF1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G66">
       <sortCondition ref="A1:A66"/>
     </sortState>
   </autoFilter>
@@ -3751,11 +3742,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -3763,7 +3755,7 @@
         <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>281</v>
+        <v>475</v>
       </c>
       <c r="C1" t="s">
         <v>280</v>
@@ -3775,10 +3767,10 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G1" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3786,7 +3778,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>318</v>
@@ -3801,7 +3793,7 @@
         <v>300</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3809,7 +3801,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>318</v>
@@ -3822,7 +3814,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3830,7 +3822,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>318</v>
@@ -3845,7 +3837,7 @@
         <v>380</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3853,7 +3845,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>318</v>
@@ -3868,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3876,7 +3868,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>318</v>
@@ -3891,7 +3883,7 @@
         <v>250</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3899,7 +3891,7 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>366</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>318</v>
@@ -3914,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3922,7 +3914,7 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>318</v>
@@ -3937,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3945,7 +3937,7 @@
         <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
         <v>320</v>
@@ -3960,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3968,7 +3960,7 @@
         <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
         <v>320</v>
@@ -3983,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3991,7 +3983,7 @@
         <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
         <v>320</v>
@@ -4006,7 +3998,7 @@
         <v>400</v>
       </c>
       <c r="G11" t="s">
-        <v>168</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4014,7 +4006,7 @@
         <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>371</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
         <v>321</v>
@@ -4029,7 +4021,7 @@
         <v>1500</v>
       </c>
       <c r="G12" t="s">
-        <v>184</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -4037,7 +4029,7 @@
         <v>185</v>
       </c>
       <c r="B13" t="s">
-        <v>372</v>
+        <v>186</v>
       </c>
       <c r="C13" t="s">
         <v>321</v>
@@ -4052,7 +4044,7 @@
         <v>1500</v>
       </c>
       <c r="G13" t="s">
-        <v>186</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4060,7 +4052,7 @@
         <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>373</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
         <v>321</v>
@@ -4075,7 +4067,7 @@
         <v>2000</v>
       </c>
       <c r="G14" t="s">
-        <v>188</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4106,7 +4098,7 @@
         <v>189</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s">
         <v>318</v>
@@ -4121,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>190</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4129,7 +4121,7 @@
         <v>191</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>192</v>
       </c>
       <c r="C17" t="s">
         <v>318</v>
@@ -4144,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>192</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4152,7 +4144,7 @@
         <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>376</v>
+        <v>194</v>
       </c>
       <c r="C18" t="s">
         <v>321</v>
@@ -4167,7 +4159,7 @@
         <v>750</v>
       </c>
       <c r="G18" t="s">
-        <v>194</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4175,7 +4167,7 @@
         <v>195</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s">
         <v>321</v>
@@ -4190,7 +4182,7 @@
         <v>750</v>
       </c>
       <c r="G19" t="s">
-        <v>196</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4244,7 +4236,7 @@
         <v>261</v>
       </c>
       <c r="B22" t="s">
-        <v>378</v>
+        <v>262</v>
       </c>
       <c r="C22" t="s">
         <v>319</v>
@@ -4259,7 +4251,7 @@
         <v>250</v>
       </c>
       <c r="G22" t="s">
-        <v>262</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4267,7 +4259,7 @@
         <v>263</v>
       </c>
       <c r="B23" t="s">
-        <v>379</v>
+        <v>264</v>
       </c>
       <c r="C23" t="s">
         <v>319</v>
@@ -4282,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>264</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4290,7 +4282,7 @@
         <v>265</v>
       </c>
       <c r="B24" t="s">
-        <v>380</v>
+        <v>266</v>
       </c>
       <c r="C24" t="s">
         <v>319</v>
@@ -4305,7 +4297,7 @@
         <v>1000</v>
       </c>
       <c r="G24" t="s">
-        <v>266</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -4313,7 +4305,7 @@
         <v>267</v>
       </c>
       <c r="B25" t="s">
-        <v>381</v>
+        <v>268</v>
       </c>
       <c r="C25" t="s">
         <v>319</v>
@@ -4328,7 +4320,7 @@
         <v>350</v>
       </c>
       <c r="G25" t="s">
-        <v>268</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4336,7 +4328,7 @@
         <v>269</v>
       </c>
       <c r="B26" t="s">
-        <v>382</v>
+        <v>270</v>
       </c>
       <c r="C26" t="s">
         <v>319</v>
@@ -4351,7 +4343,7 @@
         <v>600</v>
       </c>
       <c r="G26" t="s">
-        <v>270</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -4359,7 +4351,7 @@
         <v>271</v>
       </c>
       <c r="B27" t="s">
-        <v>383</v>
+        <v>272</v>
       </c>
       <c r="C27" t="s">
         <v>319</v>
@@ -4374,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>272</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -4382,7 +4374,7 @@
         <v>273</v>
       </c>
       <c r="B28" t="s">
-        <v>384</v>
+        <v>274</v>
       </c>
       <c r="C28" t="s">
         <v>319</v>
@@ -4397,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>274</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -4405,7 +4397,7 @@
         <v>275</v>
       </c>
       <c r="B29" t="s">
-        <v>385</v>
+        <v>276</v>
       </c>
       <c r="C29" t="s">
         <v>319</v>
@@ -4420,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>276</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -4428,7 +4420,7 @@
         <v>277</v>
       </c>
       <c r="B30" t="s">
-        <v>386</v>
+        <v>278</v>
       </c>
       <c r="C30" t="s">
         <v>319</v>
@@ -4443,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>278</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -4461,18 +4453,18 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -4480,7 +4472,7 @@
         <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>281</v>
+        <v>475</v>
       </c>
       <c r="C1" t="s">
         <v>280</v>
@@ -4492,10 +4484,10 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G1" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4503,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>327</v>
@@ -4518,7 +4510,7 @@
         <v>470</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4526,7 +4518,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>327</v>
@@ -4541,7 +4533,7 @@
         <v>470</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4549,7 +4541,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>459</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>327</v>
@@ -4564,7 +4556,7 @@
         <v>470</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4572,7 +4564,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>336</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>327</v>
@@ -4587,7 +4579,7 @@
         <v>640</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4595,7 +4587,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>337</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>327</v>
@@ -4610,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4618,7 +4610,7 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C7" t="s">
         <v>323</v>
@@ -4633,7 +4625,7 @@
         <v>2500</v>
       </c>
       <c r="G7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4641,7 +4633,7 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C8" t="s">
         <v>325</v>
@@ -4656,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4664,7 +4656,7 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C9" t="s">
         <v>325</v>
@@ -4679,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4687,7 +4679,7 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>338</v>
+        <v>455</v>
       </c>
       <c r="C10" t="s">
         <v>323</v>
@@ -4702,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>457</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4710,7 +4702,7 @@
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>466</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>323</v>
@@ -4725,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4733,7 +4725,7 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>468</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>324</v>
@@ -4748,7 +4740,7 @@
         <v>2500</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -4756,7 +4748,7 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>469</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>324</v>
@@ -4771,7 +4763,7 @@
         <v>2500</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4779,7 +4771,7 @@
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>470</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
         <v>324</v>
@@ -4794,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4802,7 +4794,7 @@
         <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>471</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>324</v>
@@ -4817,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4825,7 +4817,7 @@
         <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>472</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>324</v>
@@ -4840,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4848,7 +4840,7 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>467</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>324</v>
@@ -4863,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4871,7 +4863,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>473</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
         <v>324</v>
@@ -4886,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4894,7 +4886,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>474</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>324</v>
@@ -4909,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4917,7 +4909,7 @@
         <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>475</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
         <v>324</v>
@@ -4932,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4940,7 +4932,7 @@
         <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
         <v>324</v>
@@ -4955,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -4963,7 +4955,7 @@
         <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>476</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
         <v>323</v>
@@ -4978,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4986,7 +4978,7 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>458</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
         <v>323</v>
@@ -5001,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -5032,7 +5024,7 @@
         <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>340</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
         <v>324</v>
@@ -5047,7 +5039,7 @@
         <v>4000</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -5055,7 +5047,7 @@
         <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>341</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
         <v>325</v>
@@ -5070,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -5078,7 +5070,7 @@
         <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>342</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
         <v>325</v>
@@ -5093,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -5124,7 +5116,7 @@
         <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>343</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
         <v>324</v>
@@ -5139,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>94</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -5170,7 +5162,7 @@
         <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>455</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
         <v>322</v>
@@ -5185,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -5193,7 +5185,7 @@
         <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>456</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
         <v>322</v>
@@ -5208,12 +5200,12 @@
         <v>4150</v>
       </c>
       <c r="G32" t="s">
-        <v>100</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G32" xr:uid="{9D5309DB-3E4B-4A2E-B9D0-0761901A8DC7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G32">
+  <autoFilter ref="A1:F32" xr:uid="{9D5309DB-3E4B-4A2E-B9D0-0761901A8DC7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F32">
       <sortCondition ref="A1:A32"/>
     </sortState>
   </autoFilter>
@@ -5225,19 +5217,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008F21DF-775C-45A5-A9DB-C2774E3EF8F5}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -5245,7 +5235,7 @@
         <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>281</v>
+        <v>475</v>
       </c>
       <c r="C1" t="s">
         <v>280</v>
@@ -5257,10 +5247,10 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G1" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -5268,7 +5258,7 @@
         <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>352</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>326</v>
@@ -5283,7 +5273,7 @@
         <v>300</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -5291,7 +5281,7 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>353</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>326</v>
@@ -5306,7 +5296,7 @@
         <v>500</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -5314,7 +5304,7 @@
         <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>354</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
         <v>326</v>
@@ -5329,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>170</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -5337,7 +5327,7 @@
         <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
         <v>326</v>
@@ -5352,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -5360,7 +5350,7 @@
         <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>356</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
         <v>326</v>
@@ -5375,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>174</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5383,7 +5373,7 @@
         <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>357</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
         <v>326</v>
@@ -5398,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>176</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5406,7 +5396,7 @@
         <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
         <v>326</v>
@@ -5421,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>178</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5429,7 +5419,7 @@
         <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>359</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
         <v>326</v>
@@ -5444,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>180</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -5452,7 +5442,7 @@
         <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>360</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
         <v>326</v>
@@ -5467,12 +5457,12 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>182</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G10" xr:uid="{008F21DF-775C-45A5-A9DB-C2774E3EF8F5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+  <autoFilter ref="A1:F10" xr:uid="{008F21DF-775C-45A5-A9DB-C2774E3EF8F5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
       <sortCondition ref="A1:A10"/>
     </sortState>
   </autoFilter>
@@ -5484,19 +5474,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB7185E-3C02-4296-952B-0ECCA6C85F7E}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -5504,7 +5492,7 @@
         <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>281</v>
+        <v>475</v>
       </c>
       <c r="C1" t="s">
         <v>280</v>
@@ -5516,10 +5504,10 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G1" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -5527,7 +5515,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>344</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>329</v>
@@ -5542,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -5550,7 +5538,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>329</v>
@@ -5565,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -5573,7 +5561,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>329</v>
@@ -5588,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -5596,7 +5584,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>347</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>329</v>
@@ -5611,7 +5599,7 @@
         <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -5619,7 +5607,7 @@
         <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>328</v>
@@ -5634,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5642,7 +5630,7 @@
         <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>349</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>328</v>
@@ -5657,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5665,7 +5653,7 @@
         <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
         <v>328</v>
@@ -5680,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5688,7 +5676,7 @@
         <v>310</v>
       </c>
       <c r="B9" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="C9" t="s">
         <v>328</v>
@@ -5703,12 +5691,12 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G9" xr:uid="{3CB7185E-3C02-4296-952B-0ECCA6C85F7E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+  <autoFilter ref="A1:F9" xr:uid="{3CB7185E-3C02-4296-952B-0ECCA6C85F7E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F9">
       <sortCondition ref="A1:A9"/>
     </sortState>
   </autoFilter>

--- a/Defender Price List.xlsx
+++ b/Defender Price List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcot./Library/Mobile Documents/com~apple~CloudDocs/_Job applications/Defender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDB7353-1701-CB48-A981-0A3700CBD7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2477DB53-207A-7E4E-9D5F-75A2E7317712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="680" windowWidth="26720" windowHeight="21660" xr2:uid="{C4E6C565-55EC-4433-B17C-E6607DE47B4E}"/>
+    <workbookView xWindow="6280" yWindow="800" windowWidth="26720" windowHeight="21660" activeTab="2" xr2:uid="{C4E6C565-55EC-4433-B17C-E6607DE47B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Site Items" sheetId="13" r:id="rId1"/>
@@ -1871,7 +1871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E13A78-A279-4F3E-81D0-C47DA32EEF15}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1958,7 +1960,7 @@
         <v>312</v>
       </c>
       <c r="D4" s="1">
-        <v>2250</v>
+        <v>2890</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -3737,7 +3739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B75A2E9-CA8D-495A-8CDE-17E1A60026BD}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3784,7 +3788,7 @@
         <v>318</v>
       </c>
       <c r="D2" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -4453,7 +4457,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4616,7 +4620,7 @@
         <v>323</v>
       </c>
       <c r="D7" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -4961,7 +4965,7 @@
         <v>323</v>
       </c>
       <c r="D22" s="1">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
